--- a/report/ErrorCuadMedio.xlsx
+++ b/report/ErrorCuadMedio.xlsx
@@ -105,6 +105,1202 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cuadrático Medio por frame</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" i="1" baseline="0"/>
+              <a:t>(escena 2.2 esqueleto 9)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Escena2.2esq9!$D$1:$D$250</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="250"/>
+                <c:pt idx="0">
+                  <c:v>3.4575691488561593E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4729194794681423E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7226958083993227E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4212815844769581E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8540789264472262E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4472092469892766E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.782193728530768E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.341722334402928E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2672084500851933E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4122270280081635E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3553397038786938E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4091667367046989E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3972945216941601E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4841833511643418E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4856625488831727E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3750644403909971E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8889740748481332E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9011455922665937E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8320690779054624E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7526199686592321E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7682970011616565E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3133533988170476E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.497940969475772E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5514862004070058E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4873399602864619E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4983990636391071E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9967823835237372E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7357688205170027E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5317215386919558E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4831799576077925E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4962009329036238E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4355594768358033E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4883409856802952E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5444333271529016E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9524044163608316E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6252763395327674E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.55636169379328E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5299912463350888E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.549729305995223E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5855097367772822E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5786460007871841E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4410005711803832E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3687699944604521E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3640147131564102E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.3527435529752236E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.367415435066571E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3094541893927534E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3243470060502531E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3469450141756285E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3610493088871742E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.7544403196940045E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4381957607212257E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4117137990145936E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7060696619916601E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3220787578419259E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.339341325658543E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4740905864482988E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.4997688543715343E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.4979346946170373E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.8346499907454382E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.4890208226820707E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.3819483437232546E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3558182596534175E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4984229043162764E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6457241966276158E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.5252177615706752E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.5960749276611664E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.6300366329860938E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.6082490055550566E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5644015712028944E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.5600271125167011E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6177501967022248E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.7176895677913928E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.676329651115158E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5852590118806413E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.6170141498797888E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.6598780455351615E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.6207469387949665E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8087477760919614E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6083345202398011E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.4349781343833027E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.2641741512654624E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0915942786113921E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5655188998824994E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5222150770003508E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.2338226949633746E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.8373453303005187E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.1534343838764589E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13762480512502137</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.13938750175818748</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.14269928889029751</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.10997284392017868</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.14709003955747788</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.16494517014983989</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.17470880983388562</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19659544931836237</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.23262102798796891</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.25180090092548063</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.27598773769063373</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.30484860177716844</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.31886462317133485</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.36784270535340896</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.38512739492263592</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.40947808499042626</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.440045667890749</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.46729723407732288</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.4751781488820318</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.50225714882701245</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.52408803647059621</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.55042841795343656</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.5857762008943509</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.61313447954008593</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.64046133286046203</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.64419411968076479</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.67623889171708773</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.70926150103751029</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.76572513418107879</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.77105939454618289</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.80292376267390264</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8116915902720967</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.82762021333930957</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.70370442345744089</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.71176346269666224</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.71871944352974992</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.72282739083812875</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.72169637415225374</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.72744862529806753</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.73978432940667715</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.74208708708972282</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.74637192549292597</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.74461741217168209</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.78540542249405187</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.77672169899419374</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.77484757715827501</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.76513312279802748</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.72309500004510718</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.71613150605044662</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.72006062860948949</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.70258867567260519</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.69915482847321742</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.69390559791232298</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.68933702028099053</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.68656906299249931</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.68658180554870885</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.68845166742327779</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.68850842339233753</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.68746333017916406</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.6871273285814804</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.68656965001599524</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.68460305206247396</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.68304621017349632</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.6811491655442089</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.67922584559676302</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.67769957153019422</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.67691888808345635</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.67562898942507998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.67545762906220386</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.67621760542316434</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.67635033181549897</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.67664508097504239</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.67670166907891249</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.67635929677996598</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.67705894653028453</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.67733947649399284</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.67713402841630843</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.67854759840943746</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.67887579447231083</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.67911295716507436</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.68024692231454087</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.68040160991553145</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.68134690444786317</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.68200502785563355</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.68282543582766952</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.68365950608329396</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.68512180722723826</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.68653157998552894</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.68781732723663158</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.68859708902687877</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.68943521257815676</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.68980519473233892</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.69016447687399063</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.68874888281011493</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.68836822313729706</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.68919801505040823</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.6858914863242862</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.68302394656728949</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.66876968830059558</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.6570697612498505</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.64315010310424703</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.63367851152982813</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.69595028436839923</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.70587301882082687</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.70687402175940062</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.711223137700147</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.70885872928076155</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.70773651340443766</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.70161998162735073</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.71545972253462276</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.70793136181742056</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.69853077975507338</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.67742707708637584</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.6666815073397675</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.72882474401627761</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.73357324171204452</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.73553589073044523</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.8608815942140966</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.74427285147883582</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.74976650300715253</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.7515344037014714</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.76433962818241885</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.76963060513396453</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.76554419281557973</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.77720676009908185</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.76999292230879146</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.76933954869953414</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.77730224931657366</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.76892361313013469</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.77306312150823064</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.77090588192700016</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.77131693267429002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.77066615347407541</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.76987247337421183</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.85768606410794745</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.78880434976593305</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.63431986901572501</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.57558866740623316</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.54711026503434923</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.56523289659823883</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.55395071901756077</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.53997751524250848</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.54677514552812367</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.58505146573924749</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.58198201892471213</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.584999357243707</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.58321460278492843</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.51889312596459913</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.54617774247751338</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.58756027390986365</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.56723163404653409</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.47255750949869768</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.43363813863741535</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.41666837832202819</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.436235265084298</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.4462698466320284</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.43251175016196752</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.57317232575533394</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.42488091979452586</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.426474498954028</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.4337907468320803</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.43179843446283667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="711856864"/>
+        <c:axId val="711854688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="711856864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711854688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711854688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ECM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [rad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>²</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711856864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Erro</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>r Cuadrático Medio por frame</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+              <a:t>(escena corregida a mano vs )</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2129,16 +3325,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1019816064"/>
-        <c:axId val="-1019818240"/>
+        <c:axId val="711850880"/>
+        <c:axId val="711859040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1019816064"/>
+        <c:axId val="711850880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2175,7 +3427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1019818240"/>
+        <c:crossAx val="711859040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2183,7 +3435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1019818240"/>
+        <c:axId val="711859040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,6 +3455,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ECM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [rad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>²</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2234,7 +3558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1019816064"/>
+        <c:crossAx val="711850880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2284,6 +3608,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2839,25 +4203,578 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>618</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>632</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3143,8 +5060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B651" sqref="B651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10976,11 +12893,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/ErrorCuadMedio.xlsx
+++ b/report/ErrorCuadMedio.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Error Cuadrático Medio" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CSVfile" localSheetId="0">Escena2.2esq9!$A$1:$B$651</definedName>
+    <definedName name="CSVfile_1" localSheetId="0">Escena2.2esq9!$A$1:$B$651</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -137,10 +137,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1050" i="1" baseline="0"/>
-              <a:t>(escena 2.2 esqueleto 9)</a:t>
+              <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+              <a:t>(escena 2.2 corregida a mano vs corregida por software)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1050" i="1"/>
+            <a:endParaRPr lang="en-US" sz="1100" i="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -197,10 +197,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Escena2.2esq9!$D$1:$D$250</c:f>
+              <c:f>Escena2.2esq9!$D$1:$D$651</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="250"/>
+                <c:ptCount val="651"/>
                 <c:pt idx="0">
                   <c:v>3.4575691488561593E-2</c:v>
                 </c:pt>
@@ -850,106 +850,1309 @@
                   <c:v>0.77730224931657366</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.76892361313013469</c:v>
+                  <c:v>0.76139626690092099</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.77306312150823064</c:v>
+                  <c:v>0.76243676729857857</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.77090588192700016</c:v>
+                  <c:v>0.7577769489287971</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.77131693267429002</c:v>
+                  <c:v>0.75619880480979917</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.77066615347407541</c:v>
+                  <c:v>0.75349477672954746</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.76987247337421183</c:v>
+                  <c:v>0.74998367679866096</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.85768606410794745</c:v>
+                  <c:v>0.83528209726563996</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.78880434976593305</c:v>
+                  <c:v>0.76357278765828895</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.63431986901572501</c:v>
+                  <c:v>0.60605474480867638</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.57558866740623316</c:v>
+                  <c:v>0.54465128594682222</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.54711026503434923</c:v>
+                  <c:v>0.51408575889461239</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.56523289659823883</c:v>
+                  <c:v>0.53105582171194876</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.55395071901756077</c:v>
+                  <c:v>0.51837057442116319</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.53997751524250848</c:v>
+                  <c:v>0.50312522925216752</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.54677514552812367</c:v>
+                  <c:v>0.50775515277115169</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.58505146573924749</c:v>
+                  <c:v>0.54345421559301776</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.58198201892471213</c:v>
+                  <c:v>0.53563400095777791</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.584999357243707</c:v>
+                  <c:v>0.53762939094846884</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.58321460278492843</c:v>
+                  <c:v>0.53325306817405094</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.51889312596459913</c:v>
+                  <c:v>0.46685126573420249</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.54617774247751338</c:v>
+                  <c:v>0.49193083266531473</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.58756027390986365</c:v>
+                  <c:v>0.53219419876008522</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.56723163404653409</c:v>
+                  <c:v>0.51095379725017565</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.47255750949869768</c:v>
+                  <c:v>0.41560523708159308</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.43363813863741535</c:v>
+                  <c:v>0.37583017854837103</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.41666837832202819</c:v>
+                  <c:v>0.35873218929580386</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.436235265084298</c:v>
+                  <c:v>0.37836059096846714</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.4462698466320284</c:v>
+                  <c:v>0.38851604564565539</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.43251175016196752</c:v>
+                  <c:v>0.37445016373464196</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.57317232575533394</c:v>
+                  <c:v>0.51526244442676572</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.42488091979452586</c:v>
+                  <c:v>0.36751946370162641</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.426474498954028</c:v>
+                  <c:v>0.36919333813841443</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.4337907468320803</c:v>
+                  <c:v>0.37660888660889702</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.43179843446283667</c:v>
+                  <c:v>0.37483872047649047</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.19503228520756838</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.21341106067430712</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.18916295676867489</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.20521019224624015</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.24203807155076676</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.185572450662192</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.25084421397218787</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.26047095134107284</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.26622222447009142</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.2448689736260207</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.24284777194094559</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.23979554931549643</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.23910175743124476</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.25320731284184228</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.2827584498634686</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.3332495471804654</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.30051358545987666</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.30093557749445526</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.29599835347969022</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.37813038094574758</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.37390778172473949</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.36175582228084563</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.3554090289952912</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.52486116859381182</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.5205960577517057</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.53876949039271915</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.55090996782674073</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.56239629279865533</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.57617544865281911</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.58643139627147145</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.5925830101168047</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.64300161322719163</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.64906811068066428</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.65102592667237114</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.65210661002958692</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.65118094104816837</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.64852898741770237</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.64627933926264647</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.64434362652406008</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.64254991969978181</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.63945728666593449</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.63923266018078795</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.63897319877554937</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.63738674867843015</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.63755741013478673</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.63777533976473499</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.63661195577553442</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.63594468315937724</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.63572670248062424</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.63484064008603625</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.63559082873892492</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.63410751017451061</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.63443748363682473</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.63370057180007822</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.67356503393429823</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.68239588032613796</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.6865173419659486</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.69013837573454029</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.6936899202762975</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.69660444860531867</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.69781716374277603</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.70297717602842891</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.705292289087185</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.70554892195933938</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.70633188729510188</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.75923464138506791</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.76363311051001892</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.76310186044440553</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.76306774141848743</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.76194696907198967</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.75788444235298846</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.75775474351702499</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.75675780784100843</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.76028302180869156</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.75922087427185692</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.75731542509708982</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.75555128952740591</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.75497770070577064</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.75309963317508366</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.75134971662759087</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.76595678164910475</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.76266336538650936</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.75993564232430444</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.80916173965663163</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.93401522865980535</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.80037278224499298</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.80549759340231564</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.72798253577250771</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.73994625508415379</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.73840139789779502</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.73385271461864976</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.67675307302278798</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.66531419799732827</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.53977997604862094</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.56078508983962883</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.5348060715864581</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.49590168766576992</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.43402801877992669</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.78512352304647193</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.68101239453437212</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.67780524324641012</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.69439718081922341</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.69672486752102125</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.71891162829093991</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.75052116328697416</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.77229626383878536</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.80068751888517775</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.8190582451956816</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.85316867619904246</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.86798301859009019</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.86435169928429645</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.8969505938592528</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.92142681318141373</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.94350705857769201</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.98578795056706681</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.96787696780461718</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.96632323698803346</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.96782673829396426</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.95764352434783229</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.91972041447872754</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.79421679791335009</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.78413099757940974</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.68116009879123107</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.70579660008659084</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.69506884773404842</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.68497253932239277</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.682777258377952</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.66682525838371753</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.65120588879879315</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.52329808454295945</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.69311746464072732</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.73612133261509161</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.77553290512027984</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.85870526534596692</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.74425102947885113</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.81368199946667097</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.66127873638882595</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.59556164449804228</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.5986593943897176</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.60992397703361845</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.60396351738732534</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.6127498559099972</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.60968642209468427</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.67231396216708739</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.77942333290690946</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.76096397533137861</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.71205395625599954</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.87568553959067852</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.80244710349614012</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.76302718779092737</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.70360889290582029</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.66682141892371405</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.66144447927194117</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.71575314920354172</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.59492215834173801</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.66556539400415848</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.74400618018136289</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.76347040182929882</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.77576058453159435</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.7740129200276008</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.77613242915110259</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.7745632636644173</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.89039935060134245</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.85291882761417936</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.82804128658413423</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.85662638974816763</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.82135024576926208</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.83404957714492201</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.85233093097227619</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.8426513198444141</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.87459177100547791</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.89186032470983734</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.89563208482541212</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.90185099642938071</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.90119326455104987</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.1475126211931153</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.1488760276352661</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.85435271863229967</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.69211713580897993</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.72707034050915953</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.1488970307642019</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.69632304439467241</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.62030605629490909</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.85195131507261912</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.9420847761070329</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.0303949220869055</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.0279218397746117</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.0994403265427697</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.2044899351198448</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.3359435556970092</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.3781770720174811</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.428207803465988</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.1563260304091711</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.1486932359055293</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.1259977264562699</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.2424937347138152</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.4793646985768216</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.4270538249738765</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.4288570071449018</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.3581165452159158</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.3564031925695315</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.3595098244736166</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.4939257043187379</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.5164739510773733</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.5201321840271778</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.5090651613792472</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.361359929243716</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.3611156066942374</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.3300682305544795</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.3218385069733998</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.3246851493355869</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.3377084845203526</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.3552337731798265</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.3708305432403654</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.3437826653743339</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.2363731355266203</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.1679018728132331</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.3044238384412137</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.3716357627366511</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.3666756027076679</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1.5707431186447363</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.5601220730625909</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.5418805591123588</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1.3228161757321246</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.5436047749758257</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.5487899644438303</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.5604717250042492</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.5508931317878945</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.558039306475419</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.3197163336832527</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.3477761173025822</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.2733203035927283</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.0920361093942976</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.087977695513868</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.0870527071260976</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.2241151419111316</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.2200414216943627</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.2174410255932069</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.2152924459104473</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.2134053807580485</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.0626524745095915</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.061337758819519</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.0603965284264656</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.0596083481762504</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.0587856197251464</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.0572110983569574</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.0557438123871214</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.0543781843370588</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.0541413379632247</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1.0546114454305977</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.0546993140222858</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.0546096222668677</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1.0550738066698693</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1.0548962479997703</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.0546132143067393</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1.053654782362516</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.053224062919234</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1.052804016073865</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1.0521683082168045</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1.0523345481191881</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1.0524140750803501</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1.0516448244767953</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.0510665961880346</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1.0511379946417874</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.0759807044769618</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.0762295854774531</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.0761541283111449</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.076572098888485</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.07628773887114</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.0767002918121182</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.0767339646025709</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.075776748717312</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.0746992795944874</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.0724396515431425</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1.0713132656345898</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.0309325646918841</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1.0327247147209557</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.93230478949112572</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.94671749036828867</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.96088459198394849</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.99946512029820533</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1.0853926683914641</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1.1020076975801505</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>1.1773224424089754</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>1.2038152669276645</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>1.3222445561999512</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>1.0376877269312865</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>1.5290031170862433</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>1.6506149606386942</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>1.5706624785387553</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>1.5566530036753214</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>1.6035364670352177</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>1.5039924849956858</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>1.4857650834292193</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>1.4624949367281332</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>1.4457253571497513</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>1.4426595648283358</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1.443800583434379</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>1.4373995635594281</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>1.2855457401783239</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>1.2560640035837292</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>1.2573644214951587</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>1.2378291550707197</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>1.2252598033550686</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>1.2370297988763981</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>1.2125679307237478</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>1.0299762108383073</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>1.0216488485677693</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>1.0185922664933091</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1.0214234022729438</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1.0265456577238294</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>0.87240232979349652</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>0.84493416490200135</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0.84875907873391077</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0.84613803213886896</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>0.86822351444513124</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0.87933850415440229</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>0.87263482360573652</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0.87052337659530743</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0.87067564496912053</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0.89068990159747918</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>0.87800973081948575</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>0.8834691115869916</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>0.87695702155036381</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>0.88976689490603078</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>0.88113844974428102</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0.88468781612171854</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0.89216410935277146</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0.88636472601774108</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>0.88769877444586853</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>0.88933372820817636</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>0.88882131358373651</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>0.89247427981270322</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>0.89417965597335303</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>0.90001516965739092</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>0.8918153824722882</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>0.87442331162719389</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>0.87007434148607388</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>0.86908980773887967</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0.87362166807180086</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0.90178079457513827</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>0.90571249996046921</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>0.90565793968761021</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>0.91061948068887322</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>0.91052522374630984</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>0.91201673406928163</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>0.91068529506107321</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>0.91250415754240988</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>0.91440061551795504</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0.9019094562370874</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0.90090629375813469</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0.90167768283662864</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.90081695349802482</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.90168100040074262</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0.90064318217813932</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.90058716116481974</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0.89905605865895855</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.95793017710899708</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.95873489345652707</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.95833013957715951</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0.95871098141101163</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0.95938588634714717</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>0.76881285908011932</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0.76653481280754421</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>0.7660708524344676</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.76273746084977034</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0.74821310852747769</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.73146735779333116</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0.72237666007460843</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.72551366841310627</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.72638524843175079</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.72858669851454183</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.72951754734808305</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0.72157887122042275</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>0.7071124690566245</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>0.73028330300999433</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>0.72863176583728528</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>0.73465538701224409</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0.73390838214566356</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.7352295209682489</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0.73942965314697162</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0.73423606483554138</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>0.73037905507086098</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>0.73233215910667393</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.73500973080100129</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.73611381883266891</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0.74187010112387142</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0.75837999598898764</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>0.75289749522707539</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>0.7562812618849748</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>0.75347815722784284</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>0.75381510491899006</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0.7539273223645756</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0.75406839880311671</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>0.7538657290569748</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>0.75426951022061106</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>0.75597974877770402</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>0.7572368563120474</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>0.7587808256669446</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0.75752875821870624</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>0.75321445422510658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,11 +2168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="711856864"/>
-        <c:axId val="711854688"/>
+        <c:axId val="1076586560"/>
+        <c:axId val="1076577312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="711856864"/>
+        <c:axId val="1076586560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +2199,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>frame</a:t>
+                  <a:t>Frames</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1067,7 +2270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711854688"/>
+        <c:crossAx val="1076577312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +2278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="711854688"/>
+        <c:axId val="1076577312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +2401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711856864"/>
+        <c:crossAx val="1076586560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1282,11 +2485,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Erro</a:t>
+              <a:t>Error</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>r Cuadrático Medio por frame</a:t>
+              <a:t> Cuadrático Medio por frame</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1295,7 +2498,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
-              <a:t>(escena corregida a mano vs )</a:t>
+              <a:t>(escena 2.2 corregida a mano vs corregida por software)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100" i="1"/>
           </a:p>
@@ -2007,355 +3210,355 @@
                   <c:v>0.77730224931657366</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.76892361313013469</c:v>
+                  <c:v>0.76139626690092099</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.77306312150823064</c:v>
+                  <c:v>0.76243676729857857</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.77090588192700016</c:v>
+                  <c:v>0.7577769489287971</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.77131693267429002</c:v>
+                  <c:v>0.75619880480979917</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.77066615347407541</c:v>
+                  <c:v>0.75349477672954746</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.76987247337421183</c:v>
+                  <c:v>0.74998367679866096</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.85768606410794745</c:v>
+                  <c:v>0.83528209726563996</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.78880434976593305</c:v>
+                  <c:v>0.76357278765828895</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.63431986901572501</c:v>
+                  <c:v>0.60605474480867638</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.57558866740623316</c:v>
+                  <c:v>0.54465128594682222</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.54711026503434923</c:v>
+                  <c:v>0.51408575889461239</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.56523289659823883</c:v>
+                  <c:v>0.53105582171194876</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.55395071901756077</c:v>
+                  <c:v>0.51837057442116319</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.53997751524250848</c:v>
+                  <c:v>0.50312522925216752</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.54677514552812367</c:v>
+                  <c:v>0.50775515277115169</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.58505146573924749</c:v>
+                  <c:v>0.54345421559301776</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.58198201892471213</c:v>
+                  <c:v>0.53563400095777791</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.584999357243707</c:v>
+                  <c:v>0.53762939094846884</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.58321460278492843</c:v>
+                  <c:v>0.53325306817405094</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.51889312596459913</c:v>
+                  <c:v>0.46685126573420249</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.54617774247751338</c:v>
+                  <c:v>0.49193083266531473</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.58756027390986365</c:v>
+                  <c:v>0.53219419876008522</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.56723163404653409</c:v>
+                  <c:v>0.51095379725017565</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.47255750949869768</c:v>
+                  <c:v>0.41560523708159308</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.43363813863741535</c:v>
+                  <c:v>0.37583017854837103</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.41666837832202819</c:v>
+                  <c:v>0.35873218929580386</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.436235265084298</c:v>
+                  <c:v>0.37836059096846714</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.4462698466320284</c:v>
+                  <c:v>0.38851604564565539</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.43251175016196752</c:v>
+                  <c:v>0.37445016373464196</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.57317232575533394</c:v>
+                  <c:v>0.51526244442676572</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.42488091979452586</c:v>
+                  <c:v>0.36751946370162641</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.426474498954028</c:v>
+                  <c:v>0.36919333813841443</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.4337907468320803</c:v>
+                  <c:v>0.37660888660889702</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.43179843446283667</c:v>
+                  <c:v>0.37483872047649047</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.24914086731215748</c:v>
+                  <c:v>0.19503228520756838</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.26343356047829725</c:v>
+                  <c:v>0.21341106067430712</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.23907581820229337</c:v>
+                  <c:v>0.18916295676867489</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.25196802514999395</c:v>
+                  <c:v>0.20521019224624015</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.28415993616056634</c:v>
+                  <c:v>0.24203807155076676</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.22216611646313342</c:v>
+                  <c:v>0.185572450662192</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.28294328723555112</c:v>
+                  <c:v>0.25084421397218787</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.28903843411257979</c:v>
+                  <c:v>0.26047095134107284</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.29194513119535709</c:v>
+                  <c:v>0.26622222447009142</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.26784380288585358</c:v>
+                  <c:v>0.2448689736260207</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.26299658760281469</c:v>
+                  <c:v>0.24284777194094559</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.25657757579010887</c:v>
+                  <c:v>0.23979554931549643</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0.25287969143292849</c:v>
+                  <c:v>0.23910175743124476</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0.26506617818776795</c:v>
+                  <c:v>0.25320731284184228</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0.2930317112430767</c:v>
+                  <c:v>0.2827584498634686</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0.34299087343694573</c:v>
+                  <c:v>0.3332495471804654</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0.31152851386798719</c:v>
+                  <c:v>0.30051358545987666</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0.31486559478913889</c:v>
+                  <c:v>0.30093557749445526</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0.31470434545224213</c:v>
+                  <c:v>0.29599835347969022</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0.40278640030637497</c:v>
+                  <c:v>0.37813038094574758</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0.40428993045211514</c:v>
+                  <c:v>0.37390778172473949</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.39641443544705107</c:v>
+                  <c:v>0.36175582228084563</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.39266434351498031</c:v>
+                  <c:v>0.3554090289952912</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.70726677408980998</c:v>
+                  <c:v>0.52486116859381182</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.72029816464358631</c:v>
+                  <c:v>0.5205960577517057</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.74477133062565004</c:v>
+                  <c:v>0.53876949039271915</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.76145151537440148</c:v>
+                  <c:v>0.55090996782674073</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.77730631986617837</c:v>
+                  <c:v>0.56239629279865533</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.79487458134332678</c:v>
+                  <c:v>0.57617544865281911</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.80736856439256566</c:v>
+                  <c:v>0.58643139627147145</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0.81457359542023655</c:v>
+                  <c:v>0.5925830101168047</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0.86337942784552324</c:v>
+                  <c:v>0.64300161322719163</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0.87031814807312624</c:v>
+                  <c:v>0.64906811068066428</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0.87271059219938163</c:v>
+                  <c:v>0.65102592667237114</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.87362093068360247</c:v>
+                  <c:v>0.65210661002958692</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0.87318100229656415</c:v>
+                  <c:v>0.65118094104816837</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0.87156963114493313</c:v>
+                  <c:v>0.64852898741770237</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0.86866106879827321</c:v>
+                  <c:v>0.64627933926264647</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0.86753364151197399</c:v>
+                  <c:v>0.64434362652406008</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0.86769350899883868</c:v>
+                  <c:v>0.64254991969978181</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0.86448576010477052</c:v>
+                  <c:v>0.63945728666593449</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0.86539556591364175</c:v>
+                  <c:v>0.63923266018078795</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0.86587511855350252</c:v>
+                  <c:v>0.63897319877554937</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0.86452468415866712</c:v>
+                  <c:v>0.63738674867843015</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0.86412932802039977</c:v>
+                  <c:v>0.63755741013478673</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0.86480556439990242</c:v>
+                  <c:v>0.63777533976473499</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0.86302663342954866</c:v>
+                  <c:v>0.63661195577553442</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0.86311932878783537</c:v>
+                  <c:v>0.63594468315937724</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.86218065047511083</c:v>
+                  <c:v>0.63572670248062424</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.86120897277716235</c:v>
+                  <c:v>0.63484064008603625</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0.86177776316249632</c:v>
+                  <c:v>0.63559082873892492</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0.86045440529756034</c:v>
+                  <c:v>0.63410751017451061</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0.85977201744473375</c:v>
+                  <c:v>0.63443748363682473</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0.85860412585283818</c:v>
+                  <c:v>0.63370057180007822</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0.900981609998046</c:v>
+                  <c:v>0.67356503393429823</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>0.91122457042550753</c:v>
+                  <c:v>0.68239588032613796</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0.91611236045148414</c:v>
+                  <c:v>0.6865173419659486</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0.92022415537817903</c:v>
+                  <c:v>0.69013837573454029</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0.9240130118864972</c:v>
+                  <c:v>0.6936899202762975</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0.92753489626858032</c:v>
+                  <c:v>0.69660444860531867</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0.92908482148381322</c:v>
+                  <c:v>0.69781716374277603</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0.93426492867768385</c:v>
+                  <c:v>0.70297717602842891</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0.93654231369739527</c:v>
+                  <c:v>0.705292289087185</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0.93659063886777261</c:v>
+                  <c:v>0.70554892195933938</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0.93692761337058061</c:v>
+                  <c:v>0.70633188729510188</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0.9894254170296003</c:v>
+                  <c:v>0.75923464138506791</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>0.99342264034007155</c:v>
+                  <c:v>0.76363311051001892</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>0.98958289923764098</c:v>
+                  <c:v>0.76310186044440553</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>0.98595514618109004</c:v>
+                  <c:v>0.76306774141848743</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0.98085271532278195</c:v>
+                  <c:v>0.76194696907198967</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>0.97267175452727117</c:v>
+                  <c:v>0.75788444235298846</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>0.96811551281074204</c:v>
+                  <c:v>0.75775474351702499</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>0.96205691115168324</c:v>
+                  <c:v>0.75675780784100843</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>0.96120740187968479</c:v>
+                  <c:v>0.76028302180869156</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>0.95087763676131032</c:v>
+                  <c:v>0.75922087427185692</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>0.94373569744850672</c:v>
+                  <c:v>0.75731542509708982</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0.93846447949863643</c:v>
+                  <c:v>0.75555128952740591</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0.93496478916774051</c:v>
+                  <c:v>0.75497770070577064</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0.93486180091897009</c:v>
+                  <c:v>0.75309963317508366</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>0.9317253399220754</c:v>
+                  <c:v>0.75134971662759087</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>0.82255722938191278</c:v>
+                  <c:v>0.76595678164910475</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0.8176171342976134</c:v>
+                  <c:v>0.76266336538650936</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0.81331940321234564</c:v>
+                  <c:v>0.75993564232430444</c:v>
                 </c:pt>
                 <c:pt idx="333">
                   <c:v>0.80916173965663163</c:v>
@@ -2370,946 +3573,946 @@
                   <c:v>0.80549759340231564</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.74416756787275928</c:v>
+                  <c:v>0.72798253577250771</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.75620171426321536</c:v>
+                  <c:v>0.73994625508415379</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0.75414910248451095</c:v>
+                  <c:v>0.73840139789779502</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0.74939726281847818</c:v>
+                  <c:v>0.73385271461864976</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>0.72813485214254214</c:v>
+                  <c:v>0.67675307302278798</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0.7451928261385744</c:v>
+                  <c:v>0.66531419799732827</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>0.62297108946402024</c:v>
+                  <c:v>0.53977997604862094</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>0.64071327267408429</c:v>
+                  <c:v>0.56078508983962883</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0.61108603388593519</c:v>
+                  <c:v>0.5348060715864581</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>0.54996569346307356</c:v>
+                  <c:v>0.49590168766576992</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0.50937858067829911</c:v>
+                  <c:v>0.43402801877992669</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0.74938285819182993</c:v>
+                  <c:v>0.78512352304647193</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0.61958950625112674</c:v>
+                  <c:v>0.68101239453437212</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0.63801114029979789</c:v>
+                  <c:v>0.67780524324641012</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>0.6308448972679096</c:v>
+                  <c:v>0.69439718081922341</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>0.62941170654005174</c:v>
+                  <c:v>0.69672486752102125</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>0.67000237768559556</c:v>
+                  <c:v>0.71891162829093991</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0.70512398610108051</c:v>
+                  <c:v>0.75052116328697416</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0.72491740927588266</c:v>
+                  <c:v>0.77229626383878536</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0.76050963173187125</c:v>
+                  <c:v>0.80068751888517775</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0.78186734882471753</c:v>
+                  <c:v>0.8190582451956816</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0.80402369529450535</c:v>
+                  <c:v>0.85316867619904246</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>0.82728739898369397</c:v>
+                  <c:v>0.86798301859009019</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0.7982021913748174</c:v>
+                  <c:v>0.86435169928429645</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0.95528991264153951</c:v>
+                  <c:v>0.8969505938592528</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>0.9907480435926459</c:v>
+                  <c:v>0.92142681318141373</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.0065229755253853</c:v>
+                  <c:v>0.94350705857769201</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.0020146416770068</c:v>
+                  <c:v>0.98578795056706681</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>1.0026008581406713</c:v>
+                  <c:v>0.96787696780461718</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>1.0050901798366072</c:v>
+                  <c:v>0.96632323698803346</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>1.0035297186932834</c:v>
+                  <c:v>0.96782673829396426</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>1.008617290928606</c:v>
+                  <c:v>0.95764352434783229</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>0.97085933384574086</c:v>
+                  <c:v>0.91972041447872754</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>0.85353026492706641</c:v>
+                  <c:v>0.79421679791335009</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>0.85140147744208883</c:v>
+                  <c:v>0.78413099757940974</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>0.74585454582667676</c:v>
+                  <c:v>0.68116009879123107</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>0.76704731157454098</c:v>
+                  <c:v>0.70579660008659084</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>0.76535486009401732</c:v>
+                  <c:v>0.69506884773404842</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>0.75607690075691203</c:v>
+                  <c:v>0.68497253932239277</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>0.76810890621749273</c:v>
+                  <c:v>0.682777258377952</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>0.78275346156179981</c:v>
+                  <c:v>0.66682525838371753</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>0.81227641826245722</c:v>
+                  <c:v>0.65120588879879315</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>0.70676148246472703</c:v>
+                  <c:v>0.52329808454295945</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>0.90121270842197132</c:v>
+                  <c:v>0.69311746464072732</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>0.9383840001124889</c:v>
+                  <c:v>0.73612133261509161</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>0.94598106732417231</c:v>
+                  <c:v>0.77553290512027984</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>0.98975823095594306</c:v>
+                  <c:v>0.85870526534596692</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>0.99538833085800815</c:v>
+                  <c:v>0.74425102947885113</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>1.0529680021966095</c:v>
+                  <c:v>0.81368199946667097</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>0.90056469975282094</c:v>
+                  <c:v>0.66127873638882595</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>1.101612498492865</c:v>
+                  <c:v>0.59556164449804228</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>1.1047102483845435</c:v>
+                  <c:v>0.5986593943897176</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>1.1159748310284412</c:v>
+                  <c:v>0.60992397703361845</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>1.1040825633962763</c:v>
+                  <c:v>0.60396351738732534</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>1.1069708192992254</c:v>
+                  <c:v>0.6127498559099972</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>1.0980436440261681</c:v>
+                  <c:v>0.60968642209468427</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1.1548419342369487</c:v>
+                  <c:v>0.67231396216708739</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1.5076024222561726</c:v>
+                  <c:v>0.77942333290690946</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1.5498339277796842</c:v>
+                  <c:v>0.76096397533137861</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>1.5167680654762583</c:v>
+                  <c:v>0.71205395625599954</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>1.1926994810302267</c:v>
+                  <c:v>0.87568553959067852</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>1.1453600031898283</c:v>
+                  <c:v>0.80244710349614012</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1.1313684286963053</c:v>
+                  <c:v>0.76302718779092737</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>1.1076039953545422</c:v>
+                  <c:v>0.70360889290582029</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>1.1025888699582511</c:v>
+                  <c:v>0.66682141892371405</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>1.1209417800852175</c:v>
+                  <c:v>0.66144447927194117</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>1.2078202626382408</c:v>
+                  <c:v>0.71575314920354172</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>1.116485588360653</c:v>
+                  <c:v>0.59492215834173801</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>1.2105989822963796</c:v>
+                  <c:v>0.66556539400415848</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>1.3060067473980768</c:v>
+                  <c:v>0.74400618018136289</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>1.2625300667154742</c:v>
+                  <c:v>0.76347040182929882</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>1.2980412156451404</c:v>
+                  <c:v>0.77576058453159435</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>1.2913341620970467</c:v>
+                  <c:v>0.7740129200276008</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>1.2615872830194641</c:v>
+                  <c:v>0.77613242915110259</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>1.250393428349051</c:v>
+                  <c:v>0.7745632636644173</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>1.3136331491875699</c:v>
+                  <c:v>0.89039935060134245</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>1.900550263674039</c:v>
+                  <c:v>0.85291882761417936</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>1.8803945986740327</c:v>
+                  <c:v>0.82804128658413423</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>1.9199425111429409</c:v>
+                  <c:v>0.85662638974816763</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>1.8794456951056426</c:v>
+                  <c:v>0.82135024576926208</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>1.8804696654809094</c:v>
+                  <c:v>0.83404957714492201</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>1.9011090997775648</c:v>
+                  <c:v>0.85233093097227619</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>1.8659324637081278</c:v>
+                  <c:v>0.8426513198444141</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>1.906195207119556</c:v>
+                  <c:v>0.87459177100547791</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>1.930861775869531</c:v>
+                  <c:v>0.89186032470983734</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>1.9281130117204128</c:v>
+                  <c:v>0.89563208482541212</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>1.9254514529258533</c:v>
+                  <c:v>0.90185099642938071</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>1.9128184492007991</c:v>
+                  <c:v>0.90119326455104987</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>2.1514010693484291</c:v>
+                  <c:v>1.1475126211931153</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>2.2424460491372615</c:v>
+                  <c:v>1.1488760276352661</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>1.9494064692566639</c:v>
+                  <c:v>0.85435271863229967</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>1.7795252947514042</c:v>
+                  <c:v>0.69211713580897993</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>1.8121512846938226</c:v>
+                  <c:v>0.72707034050915953</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>2.2694647969525366</c:v>
+                  <c:v>1.1488970307642019</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>1.8032774585613804</c:v>
+                  <c:v>0.69632304439467241</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>1.6956712564626499</c:v>
+                  <c:v>0.62030605629490909</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>1.9337217971114411</c:v>
+                  <c:v>0.85195131507261912</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>2.0330846373370099</c:v>
+                  <c:v>0.9420847761070329</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>2.0439424793198131</c:v>
+                  <c:v>1.0303949220869055</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>2.1024917593106789</c:v>
+                  <c:v>1.0279218397746117</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>2.2256521666005189</c:v>
+                  <c:v>1.0994403265427697</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>2.352099698938698</c:v>
+                  <c:v>1.2044899351198448</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>2.4977208399831192</c:v>
+                  <c:v>1.3359435556970092</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>2.562687023150255</c:v>
+                  <c:v>1.3781770720174811</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>2.8179112461127094</c:v>
+                  <c:v>1.428207803465988</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>2.5304249719300724</c:v>
+                  <c:v>1.1563260304091711</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>2.5060684645674511</c:v>
+                  <c:v>1.1486932359055293</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>2.4595062932206693</c:v>
+                  <c:v>1.1259977264562699</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>2.5753001184910209</c:v>
+                  <c:v>1.2424937347138152</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>2.9502504119490784</c:v>
+                  <c:v>1.4793646985768216</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>2.9088148160697469</c:v>
+                  <c:v>1.4270538249738765</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>2.8359333759489909</c:v>
+                  <c:v>1.4288570071449018</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>2.8396312151678762</c:v>
+                  <c:v>1.3581165452159158</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>2.8235344367253616</c:v>
+                  <c:v>1.3564031925695315</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>2.8159369582458615</c:v>
+                  <c:v>1.3595098244736166</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>2.6537143912573473</c:v>
+                  <c:v>1.4939257043187379</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>2.6609887095886813</c:v>
+                  <c:v>1.5164739510773733</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>2.6505653888562239</c:v>
+                  <c:v>1.5201321840271778</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>2.6467072222717816</c:v>
+                  <c:v>1.5090651613792472</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>2.5589843618556563</c:v>
+                  <c:v>1.361359929243716</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>2.5712299871216659</c:v>
+                  <c:v>1.3611156066942374</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>2.4642607972243593</c:v>
+                  <c:v>1.3300682305544795</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>2.4534570934688142</c:v>
+                  <c:v>1.3218385069733998</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>2.4546906881783728</c:v>
+                  <c:v>1.3246851493355869</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>2.458902720333227</c:v>
+                  <c:v>1.3377084845203526</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>2.4499814043862038</c:v>
+                  <c:v>1.3552337731798265</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>2.4697232522373564</c:v>
+                  <c:v>1.3708305432403654</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>2.4416435086371133</c:v>
+                  <c:v>1.3437826653743339</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>2.4427769242994071</c:v>
+                  <c:v>1.2363731355266203</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>2.1761769833365139</c:v>
+                  <c:v>1.1679018728132331</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>2.4893012059837538</c:v>
+                  <c:v>1.3044238384412137</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>2.3744926811742015</c:v>
+                  <c:v>1.3716357627366511</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>2.3814170137203501</c:v>
+                  <c:v>1.3666756027076679</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>2.6361043921885288</c:v>
+                  <c:v>1.5707431186447363</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>2.6397896643607193</c:v>
+                  <c:v>1.5601220730625909</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>2.6318583201739667</c:v>
+                  <c:v>1.5418805591123588</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>2.4006772090528146</c:v>
+                  <c:v>1.3228161757321246</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>2.6493164667617068</c:v>
+                  <c:v>1.5436047749758257</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>2.6994351771155181</c:v>
+                  <c:v>1.5487899644438303</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>2.7120596409540911</c:v>
+                  <c:v>1.5604717250042492</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>2.7381637940421042</c:v>
+                  <c:v>1.5508931317878945</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>2.7659334645616873</c:v>
+                  <c:v>1.558039306475419</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>2.5279987004270783</c:v>
+                  <c:v>1.3197163336832527</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>2.3973159946193858</c:v>
+                  <c:v>1.3477761173025822</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>2.4561395746204751</c:v>
+                  <c:v>1.2733203035927283</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>2.2977519923640348</c:v>
+                  <c:v>1.0920361093942976</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>2.2992913059842097</c:v>
+                  <c:v>1.087977695513868</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>2.3004635593242417</c:v>
+                  <c:v>1.0870527071260976</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>2.4407583120454563</c:v>
+                  <c:v>1.2241151419111316</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>2.4383021075159017</c:v>
+                  <c:v>1.2200414216943627</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>2.4396506062141734</c:v>
+                  <c:v>1.2174410255932069</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>2.44097182233349</c:v>
+                  <c:v>1.2152924459104473</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>2.4422191621743505</c:v>
+                  <c:v>1.2134053807580485</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>2.2940378361837328</c:v>
+                  <c:v>1.0626524745095915</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>2.2963846635886553</c:v>
+                  <c:v>1.061337758819519</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>2.2981034434217604</c:v>
+                  <c:v>1.0603965284264656</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>2.298412224711079</c:v>
+                  <c:v>1.0596083481762504</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>2.2984506276795269</c:v>
+                  <c:v>1.0587856197251464</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>2.2998805390184924</c:v>
+                  <c:v>1.0572110983569574</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>2.3010238843224293</c:v>
+                  <c:v>1.0557438123871214</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>2.3013052528334677</c:v>
+                  <c:v>1.0543781843370588</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>2.3022376002876723</c:v>
+                  <c:v>1.0541413379632247</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>2.3021289524658508</c:v>
+                  <c:v>1.0546114454305977</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>2.3024381209265936</c:v>
+                  <c:v>1.0546993140222858</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>2.3037833009399087</c:v>
+                  <c:v>1.0546096222668677</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>2.3043156193555121</c:v>
+                  <c:v>1.0550738066698693</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>2.3052497268107626</c:v>
+                  <c:v>1.0548962479997703</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>2.3059289500223792</c:v>
+                  <c:v>1.0546132143067393</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>2.3062944987959599</c:v>
+                  <c:v>1.053654782362516</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>2.3073704377311999</c:v>
+                  <c:v>1.053224062919234</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>2.3077696763074611</c:v>
+                  <c:v>1.052804016073865</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>2.3065094854000794</c:v>
+                  <c:v>1.0521683082168045</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>2.3087125951381586</c:v>
+                  <c:v>1.0523345481191881</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>2.3084249728156001</c:v>
+                  <c:v>1.0524140750803501</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>2.3075074053962794</c:v>
+                  <c:v>1.0516448244767953</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>2.3085395717767447</c:v>
+                  <c:v>1.0510665961880346</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>2.3084077730717349</c:v>
+                  <c:v>1.0511379946417874</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>2.3325022291125053</c:v>
+                  <c:v>1.0759807044769618</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>2.3320742197444853</c:v>
+                  <c:v>1.0762295854774531</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>2.3324571297825769</c:v>
+                  <c:v>1.0761541283111449</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>2.3316731934328496</c:v>
+                  <c:v>1.076572098888485</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>2.3324281407189549</c:v>
+                  <c:v>1.07628773887114</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>2.3319092363882761</c:v>
+                  <c:v>1.0767002918121182</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>2.3315589042415668</c:v>
+                  <c:v>1.0767339646025709</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>2.3305717618037018</c:v>
+                  <c:v>1.075776748717312</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>2.3280171615718177</c:v>
+                  <c:v>1.0746992795944874</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>2.323866191142264</c:v>
+                  <c:v>1.0724396515431425</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>2.321733502056091</c:v>
+                  <c:v>1.0713132656345898</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>2.3199482574766019</c:v>
+                  <c:v>1.0309325646918841</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>2.3083125042260018</c:v>
+                  <c:v>1.0327247147209557</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>2.218698194465023</c:v>
+                  <c:v>0.93230478949112572</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>2.2319571596765972</c:v>
+                  <c:v>0.94671749036828867</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>2.2033483835508187</c:v>
+                  <c:v>0.96088459198394849</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>2.2297862757096478</c:v>
+                  <c:v>0.99946512029820533</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>2.3639358982810812</c:v>
+                  <c:v>1.0853926683914641</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>2.3687207120951319</c:v>
+                  <c:v>1.1020076975801505</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>2.3152396824938486</c:v>
+                  <c:v>1.1773224424089754</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>2.3841419496809459</c:v>
+                  <c:v>1.2038152669276645</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>2.4590127578198486</c:v>
+                  <c:v>1.3222445561999512</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>2.1650199301760442</c:v>
+                  <c:v>1.0376877269312865</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>2.6564873389513828</c:v>
+                  <c:v>1.5290031170862433</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>2.7531088844222893</c:v>
+                  <c:v>1.6506149606386942</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>2.9577548526685509</c:v>
+                  <c:v>1.5706624785387553</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>2.9357389621030165</c:v>
+                  <c:v>1.5566530036753214</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>2.6455095857837518</c:v>
+                  <c:v>1.6035364670352177</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>2.8327424838588673</c:v>
+                  <c:v>1.5039924849956858</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>2.8169965848360006</c:v>
+                  <c:v>1.4857650834292193</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>2.7864847424390038</c:v>
+                  <c:v>1.4624949367281332</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>2.767974445829585</c:v>
+                  <c:v>1.4457253571497513</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>2.758410913689187</c:v>
+                  <c:v>1.4426595648283358</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>2.7532016769835042</c:v>
+                  <c:v>1.443800583434379</c:v>
                 </c:pt>
                 <c:pt idx="548">
-                  <c:v>2.7499750255640767</c:v>
+                  <c:v>1.4373995635594281</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>2.5970708189901388</c:v>
+                  <c:v>1.2855457401783239</c:v>
                 </c:pt>
                 <c:pt idx="550">
-                  <c:v>2.563621072618707</c:v>
+                  <c:v>1.2560640035837292</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>2.5598055712473471</c:v>
+                  <c:v>1.2573644214951587</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>2.5368138920356871</c:v>
+                  <c:v>1.2378291550707197</c:v>
                 </c:pt>
                 <c:pt idx="553">
-                  <c:v>2.5261647505881526</c:v>
+                  <c:v>1.2252598033550686</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>2.5373542376298808</c:v>
+                  <c:v>1.2370297988763981</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>2.5121868319492791</c:v>
+                  <c:v>1.2125679307237478</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>2.3268738765481531</c:v>
+                  <c:v>1.0299762108383073</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>2.318581042427827</c:v>
+                  <c:v>1.0216488485677693</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>2.3168604898617278</c:v>
+                  <c:v>1.0185922664933091</c:v>
                 </c:pt>
                 <c:pt idx="559">
-                  <c:v>2.3201388255711524</c:v>
+                  <c:v>1.0214234022729438</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>2.3250342038423453</c:v>
+                  <c:v>1.0265456577238294</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>2.1746393165153806</c:v>
+                  <c:v>0.87240232979349652</c:v>
                 </c:pt>
                 <c:pt idx="562">
-                  <c:v>2.1751632238054719</c:v>
+                  <c:v>0.84493416490200135</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>2.1720213132358968</c:v>
+                  <c:v>0.84875907873391077</c:v>
                 </c:pt>
                 <c:pt idx="564">
-                  <c:v>2.1756487877012907</c:v>
+                  <c:v>0.84613803213886896</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>2.1724019423320104</c:v>
+                  <c:v>0.86822351444513124</c:v>
                 </c:pt>
                 <c:pt idx="566">
-                  <c:v>2.1753448771023556</c:v>
+                  <c:v>0.87933850415440229</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>2.1681910737026011</c:v>
+                  <c:v>0.87263482360573652</c:v>
                 </c:pt>
                 <c:pt idx="568">
-                  <c:v>2.1668999440638927</c:v>
+                  <c:v>0.87052337659530743</c:v>
                 </c:pt>
                 <c:pt idx="569">
-                  <c:v>2.1670608012430188</c:v>
+                  <c:v>0.87067564496912053</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>2.1915621933745197</c:v>
+                  <c:v>0.89068990159747918</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>2.1780156245761044</c:v>
+                  <c:v>0.87800973081948575</c:v>
                 </c:pt>
                 <c:pt idx="572">
-                  <c:v>2.1795641324218842</c:v>
+                  <c:v>0.8834691115869916</c:v>
                 </c:pt>
                 <c:pt idx="573">
-                  <c:v>2.1734757577179034</c:v>
+                  <c:v>0.87695702155036381</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>2.186913024391858</c:v>
+                  <c:v>0.88976689490603078</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>2.1785409358777574</c:v>
+                  <c:v>0.88113844974428102</c:v>
                 </c:pt>
                 <c:pt idx="576">
-                  <c:v>2.1822550473227311</c:v>
+                  <c:v>0.88468781612171854</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>2.1898530038139628</c:v>
+                  <c:v>0.89216410935277146</c:v>
                 </c:pt>
                 <c:pt idx="578">
-                  <c:v>2.1842360028950774</c:v>
+                  <c:v>0.88636472601774108</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>2.1857148462929561</c:v>
+                  <c:v>0.88769877444586853</c:v>
                 </c:pt>
                 <c:pt idx="580">
-                  <c:v>2.1878349262597427</c:v>
+                  <c:v>0.88933372820817636</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>2.187000157983408</c:v>
+                  <c:v>0.88882131358373651</c:v>
                 </c:pt>
                 <c:pt idx="582">
-                  <c:v>2.1911920552260313</c:v>
+                  <c:v>0.89247427981270322</c:v>
                 </c:pt>
                 <c:pt idx="583">
-                  <c:v>2.1928967607597127</c:v>
+                  <c:v>0.89417965597335303</c:v>
                 </c:pt>
                 <c:pt idx="584">
-                  <c:v>2.1995203468899858</c:v>
+                  <c:v>0.90001516965739092</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>2.1995800927998563</c:v>
+                  <c:v>0.8918153824722882</c:v>
                 </c:pt>
                 <c:pt idx="586">
-                  <c:v>2.1734594450491529</c:v>
+                  <c:v>0.87442331162719389</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>2.1700529813564651</c:v>
+                  <c:v>0.87007434148607388</c:v>
                 </c:pt>
                 <c:pt idx="588">
-                  <c:v>2.170428020763683</c:v>
+                  <c:v>0.86908980773887967</c:v>
                 </c:pt>
                 <c:pt idx="589">
-                  <c:v>2.175636729287318</c:v>
+                  <c:v>0.87362166807180086</c:v>
                 </c:pt>
                 <c:pt idx="590">
-                  <c:v>2.2043573912914272</c:v>
+                  <c:v>0.90178079457513827</c:v>
                 </c:pt>
                 <c:pt idx="591">
-                  <c:v>2.2090812167855396</c:v>
+                  <c:v>0.90571249996046921</c:v>
                 </c:pt>
                 <c:pt idx="592">
-                  <c:v>2.2088300728324288</c:v>
+                  <c:v>0.90565793968761021</c:v>
                 </c:pt>
                 <c:pt idx="593">
-                  <c:v>2.2138701601383461</c:v>
+                  <c:v>0.91061948068887322</c:v>
                 </c:pt>
                 <c:pt idx="594">
-                  <c:v>2.2141677883512765</c:v>
+                  <c:v>0.91052522374630984</c:v>
                 </c:pt>
                 <c:pt idx="595">
-                  <c:v>2.2156721868029527</c:v>
+                  <c:v>0.91201673406928163</c:v>
                 </c:pt>
                 <c:pt idx="596">
-                  <c:v>2.2150930520635508</c:v>
+                  <c:v>0.91068529506107321</c:v>
                 </c:pt>
                 <c:pt idx="597">
-                  <c:v>2.217135316274133</c:v>
+                  <c:v>0.91250415754240988</c:v>
                 </c:pt>
                 <c:pt idx="598">
-                  <c:v>2.2188296357536172</c:v>
+                  <c:v>0.91440061551795504</c:v>
                 </c:pt>
                 <c:pt idx="599">
-                  <c:v>2.2059867951929615</c:v>
+                  <c:v>0.9019094562370874</c:v>
                 </c:pt>
                 <c:pt idx="600">
-                  <c:v>2.2054631548952495</c:v>
+                  <c:v>0.90090629375813469</c:v>
                 </c:pt>
                 <c:pt idx="601">
-                  <c:v>2.2065401670996572</c:v>
+                  <c:v>0.90167768283662864</c:v>
                 </c:pt>
                 <c:pt idx="602">
-                  <c:v>2.2059260625851032</c:v>
+                  <c:v>0.90081695349802482</c:v>
                 </c:pt>
                 <c:pt idx="603">
-                  <c:v>2.2051127674080053</c:v>
+                  <c:v>0.90168100040074262</c:v>
                 </c:pt>
                 <c:pt idx="604">
-                  <c:v>2.2044032963021905</c:v>
+                  <c:v>0.90064318217813932</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>2.2047927304638049</c:v>
+                  <c:v>0.90058716116481974</c:v>
                 </c:pt>
                 <c:pt idx="606">
-                  <c:v>2.2037403796914274</c:v>
+                  <c:v>0.89905605865895855</c:v>
                 </c:pt>
                 <c:pt idx="607">
-                  <c:v>2.125530858384491</c:v>
+                  <c:v>0.95793017710899708</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>2.1262415702649196</c:v>
+                  <c:v>0.95873489345652707</c:v>
                 </c:pt>
                 <c:pt idx="609">
-                  <c:v>2.1262851213736074</c:v>
+                  <c:v>0.95833013957715951</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>2.129999303996096</c:v>
+                  <c:v>0.95871098141101163</c:v>
                 </c:pt>
                 <c:pt idx="611">
-                  <c:v>2.1293366821120969</c:v>
+                  <c:v>0.95938588634714717</c:v>
                 </c:pt>
                 <c:pt idx="612">
-                  <c:v>2.1736495826677205</c:v>
+                  <c:v>0.76881285908011932</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>2.1707326510332163</c:v>
+                  <c:v>0.76653481280754421</c:v>
                 </c:pt>
                 <c:pt idx="614">
-                  <c:v>2.1700692684141769</c:v>
+                  <c:v>0.7660708524344676</c:v>
                 </c:pt>
                 <c:pt idx="615">
-                  <c:v>2.165977743589186</c:v>
+                  <c:v>0.76273746084977034</c:v>
                 </c:pt>
                 <c:pt idx="616">
-                  <c:v>2.1560941678296586</c:v>
+                  <c:v>0.74821310852747769</c:v>
                 </c:pt>
                 <c:pt idx="617">
-                  <c:v>2.1470374519079369</c:v>
+                  <c:v>0.73146735779333116</c:v>
                 </c:pt>
                 <c:pt idx="618">
-                  <c:v>2.1419261477533498</c:v>
+                  <c:v>0.72237666007460843</c:v>
                 </c:pt>
                 <c:pt idx="619">
-                  <c:v>2.1419591683195613</c:v>
+                  <c:v>0.72551366841310627</c:v>
                 </c:pt>
                 <c:pt idx="620">
-                  <c:v>2.1434682615158178</c:v>
+                  <c:v>0.72638524843175079</c:v>
                 </c:pt>
                 <c:pt idx="621">
-                  <c:v>2.1437907357503598</c:v>
+                  <c:v>0.72858669851454183</c:v>
                 </c:pt>
                 <c:pt idx="622">
-                  <c:v>2.1407091573694803</c:v>
+                  <c:v>0.72951754734808305</c:v>
                 </c:pt>
                 <c:pt idx="623">
-                  <c:v>2.1502272849773294</c:v>
+                  <c:v>0.72157887122042275</c:v>
                 </c:pt>
                 <c:pt idx="624">
-                  <c:v>2.150179562217978</c:v>
+                  <c:v>0.7071124690566245</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>2.1327233084547683</c:v>
+                  <c:v>0.73028330300999433</c:v>
                 </c:pt>
                 <c:pt idx="626">
-                  <c:v>2.1266914074650503</c:v>
+                  <c:v>0.72863176583728528</c:v>
                 </c:pt>
                 <c:pt idx="627">
-                  <c:v>2.1282151259178401</c:v>
+                  <c:v>0.73465538701224409</c:v>
                 </c:pt>
                 <c:pt idx="628">
-                  <c:v>2.1357356271557131</c:v>
+                  <c:v>0.73390838214566356</c:v>
                 </c:pt>
                 <c:pt idx="629">
-                  <c:v>2.1419043880792255</c:v>
+                  <c:v>0.7352295209682489</c:v>
                 </c:pt>
                 <c:pt idx="630">
-                  <c:v>2.1438034613577779</c:v>
+                  <c:v>0.73942965314697162</c:v>
                 </c:pt>
                 <c:pt idx="631">
-                  <c:v>2.1456121675688369</c:v>
+                  <c:v>0.73423606483554138</c:v>
                 </c:pt>
                 <c:pt idx="632">
-                  <c:v>2.1459035114036342</c:v>
+                  <c:v>0.73037905507086098</c:v>
                 </c:pt>
                 <c:pt idx="633">
-                  <c:v>2.1441956712691685</c:v>
+                  <c:v>0.73233215910667393</c:v>
                 </c:pt>
                 <c:pt idx="634">
-                  <c:v>2.1476162695229792</c:v>
+                  <c:v>0.73500973080100129</c:v>
                 </c:pt>
                 <c:pt idx="635">
-                  <c:v>2.1493254683429952</c:v>
+                  <c:v>0.73611381883266891</c:v>
                 </c:pt>
                 <c:pt idx="636">
-                  <c:v>2.1553378753039656</c:v>
+                  <c:v>0.74187010112387142</c:v>
                 </c:pt>
                 <c:pt idx="637">
-                  <c:v>2.1690255835031929</c:v>
+                  <c:v>0.75837999598898764</c:v>
                 </c:pt>
                 <c:pt idx="638">
-                  <c:v>2.1637543653836477</c:v>
+                  <c:v>0.75289749522707539</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>2.1659233847872699</c:v>
+                  <c:v>0.7562812618849748</c:v>
                 </c:pt>
                 <c:pt idx="640">
-                  <c:v>2.1781465194469907</c:v>
+                  <c:v>0.75347815722784284</c:v>
                 </c:pt>
                 <c:pt idx="641">
-                  <c:v>2.1816015507300452</c:v>
+                  <c:v>0.75381510491899006</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>2.1812759021922301</c:v>
+                  <c:v>0.7539273223645756</c:v>
                 </c:pt>
                 <c:pt idx="643">
-                  <c:v>2.1835365633433499</c:v>
+                  <c:v>0.75406839880311671</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>2.1820501265965975</c:v>
+                  <c:v>0.7538657290569748</c:v>
                 </c:pt>
                 <c:pt idx="645">
-                  <c:v>2.182039987517876</c:v>
+                  <c:v>0.75426951022061106</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>2.1857453188031486</c:v>
+                  <c:v>0.75597974877770402</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>2.1877803887658853</c:v>
+                  <c:v>0.7572368563120474</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>2.1873659375808114</c:v>
+                  <c:v>0.7587808256669446</c:v>
                 </c:pt>
                 <c:pt idx="649">
-                  <c:v>2.1847679583664728</c:v>
+                  <c:v>0.75752875821870624</c:v>
                 </c:pt>
                 <c:pt idx="650">
-                  <c:v>2.1800359156339995</c:v>
+                  <c:v>0.75321445422510658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,11 +4528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="711850880"/>
-        <c:axId val="711859040"/>
+        <c:axId val="1076580576"/>
+        <c:axId val="1076581120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="711850880"/>
+        <c:axId val="1076580576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,7 +4630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711859040"/>
+        <c:crossAx val="1076581120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3435,7 +4638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="711859040"/>
+        <c:axId val="1076581120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,7 +4761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711850880"/>
+        <c:crossAx val="1076580576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4724,19 +5927,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4759,19 +5962,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4792,7 +5995,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CSVfile" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CSVfile_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5060,8 +6263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B651" sqref="B651"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7667,11 +8870,11 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>2524.2273198575799</v>
+        <v>2499.5164998575801</v>
       </c>
       <c r="D217">
         <f t="shared" si="3"/>
-        <v>0.76892361313013469</v>
+        <v>0.76139626690092099</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -7679,11 +8882,11 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>2537.81652424712</v>
+        <v>2502.9322611702</v>
       </c>
       <c r="D218">
         <f t="shared" si="3"/>
-        <v>0.77306312150823064</v>
+        <v>0.76243676729857857</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -7691,11 +8894,11 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>2530.7347244513599</v>
+        <v>2487.6349798359802</v>
       </c>
       <c r="D219">
         <f t="shared" si="3"/>
-        <v>0.77090588192700016</v>
+        <v>0.7577769489287971</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -7703,11 +8906,11 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>2532.08412445474</v>
+        <v>2482.4542383009002</v>
       </c>
       <c r="D220">
         <f t="shared" si="3"/>
-        <v>0.77131693267429002</v>
+        <v>0.75619880480979917</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -7715,11 +8918,11 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>2529.94774236382</v>
+        <v>2473.5774377484399</v>
       </c>
       <c r="D221">
         <f t="shared" si="3"/>
-        <v>0.77066615347407541</v>
+        <v>0.75349477672954746</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -7727,11 +8930,11 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>2527.3422442921101</v>
+        <v>2462.0511765997999</v>
       </c>
       <c r="D222">
         <f t="shared" si="3"/>
-        <v>0.76987247337421183</v>
+        <v>0.74998367679866096</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -7739,11 +8942,11 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>2815.6172575701498</v>
+        <v>2742.0693729547702</v>
       </c>
       <c r="D223">
         <f t="shared" si="3"/>
-        <v>0.85768606410794745</v>
+        <v>0.83528209726563996</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -7751,11 +8954,11 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>2589.4919283284898</v>
+        <v>2506.6615960208001</v>
       </c>
       <c r="D224">
         <f t="shared" si="3"/>
-        <v>0.78880434976593305</v>
+        <v>0.76357278765828895</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -7763,11 +8966,11 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>2082.34929394344</v>
+        <v>1989.56036471267</v>
       </c>
       <c r="D225">
         <f t="shared" si="3"/>
-        <v>0.63431986901572501</v>
+        <v>0.60605474480867638</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -7775,11 +8978,11 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>1889.54613235598</v>
+        <v>1787.9847000482901</v>
       </c>
       <c r="D226">
         <f t="shared" si="3"/>
-        <v>0.57558866740623316</v>
+        <v>0.54465128594682222</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -7787,11 +8990,11 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>1796.0570522113701</v>
+        <v>1687.6439937498401</v>
       </c>
       <c r="D227">
         <f t="shared" si="3"/>
-        <v>0.54711026503434923</v>
+        <v>0.51408575889461239</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -7799,11 +9002,11 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>1855.55014218823</v>
+        <v>1743.3534237266899</v>
       </c>
       <c r="D228">
         <f t="shared" si="3"/>
-        <v>0.56523289659823883</v>
+        <v>0.53105582171194876</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -7811,11 +9014,11 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>1818.51293798442</v>
+        <v>1701.71021336903</v>
       </c>
       <c r="D229">
         <f t="shared" si="3"/>
-        <v>0.55395071901756077</v>
+        <v>0.51837057442116319</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7823,11 +9026,11 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>1772.6416159016701</v>
+        <v>1651.6626974401299</v>
       </c>
       <c r="D230">
         <f t="shared" si="3"/>
-        <v>0.53997751524250848</v>
+        <v>0.50312522925216752</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7835,11 +9038,11 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>1794.9569197683199</v>
+        <v>1666.8618397683199</v>
       </c>
       <c r="D231">
         <f t="shared" si="3"/>
-        <v>0.54677514552812367</v>
+        <v>0.50775515277115169</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7847,11 +9050,11 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>1920.6106668124801</v>
+        <v>1784.05494988941</v>
       </c>
       <c r="D232">
         <f t="shared" si="3"/>
-        <v>0.58505146573924749</v>
+        <v>0.54345421559301776</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7859,11 +9062,11 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>1910.5342673186999</v>
+        <v>1758.3826996263899</v>
       </c>
       <c r="D233">
         <f t="shared" si="3"/>
-        <v>0.58198201892471213</v>
+        <v>0.53563400095777791</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7871,11 +9074,11 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>1920.4396047124301</v>
+        <v>1764.93317855858</v>
       </c>
       <c r="D234">
         <f t="shared" si="3"/>
-        <v>0.584999357243707</v>
+        <v>0.53762939094846884</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,11 +9086,11 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>1914.58060144194</v>
+        <v>1750.56655836502</v>
       </c>
       <c r="D235">
         <f t="shared" si="3"/>
-        <v>0.58321460278492843</v>
+        <v>0.53325306817405094</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7895,11 +9098,11 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>1703.42564889403</v>
+        <v>1532.5822996632601</v>
       </c>
       <c r="D236">
         <f t="shared" si="3"/>
-        <v>0.51889312596459913</v>
+        <v>0.46685126573420249</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7907,11 +9110,11 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>1792.99576124026</v>
+        <v>1614.9136612402599</v>
       </c>
       <c r="D237">
         <f t="shared" si="3"/>
-        <v>0.54617774247751338</v>
+        <v>0.49193083266531473</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7919,11 +9122,11 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>1928.8465982059399</v>
+        <v>1747.0904951290199</v>
       </c>
       <c r="D238">
         <f t="shared" si="3"/>
-        <v>0.58756027390986365</v>
+        <v>0.53219419876008522</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7931,11 +9134,11 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>1862.1116101754999</v>
+        <v>1677.36237017549</v>
       </c>
       <c r="D239">
         <f t="shared" si="3"/>
-        <v>0.56723163404653409</v>
+        <v>0.51095379725017565</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7943,11 +9146,11 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>1551.3147929280599</v>
+        <v>1364.3515113895901</v>
       </c>
       <c r="D240">
         <f t="shared" si="3"/>
-        <v>0.47255750949869768</v>
+        <v>0.41560523708159308</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,11 +9158,11 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>1423.5500351261801</v>
+        <v>1233.77769666464</v>
       </c>
       <c r="D241">
         <f t="shared" si="3"/>
-        <v>0.43363813863741535</v>
+        <v>0.37583017854837103</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7967,11 +9170,11 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>1367.8415982046499</v>
+        <v>1177.6483089738799</v>
       </c>
       <c r="D242">
         <f t="shared" si="3"/>
-        <v>0.41666837832202819</v>
+        <v>0.35873218929580386</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7979,11 +9182,11 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>1432.07589831779</v>
+        <v>1242.08455062548</v>
       </c>
       <c r="D243">
         <f t="shared" si="3"/>
-        <v>0.436235265084298</v>
+        <v>0.37836059096846714</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -7991,11 +9194,11 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>1465.0174863423899</v>
+        <v>1275.4229417270101</v>
       </c>
       <c r="D244">
         <f t="shared" si="3"/>
-        <v>0.4462698466320284</v>
+        <v>0.38851604564565539</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -8003,11 +9206,11 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>1419.8523198864</v>
+        <v>1229.24737527102</v>
       </c>
       <c r="D245">
         <f t="shared" si="3"/>
-        <v>0.43251175016196752</v>
+        <v>0.37445016373464196</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -8015,11 +9218,11 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>1881.6137506406101</v>
+        <v>1691.50682448676</v>
       </c>
       <c r="D246">
         <f t="shared" si="3"/>
-        <v>0.57317232575533394</v>
+        <v>0.51526244442676572</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -8027,11 +9230,11 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>1394.8017815003</v>
+        <v>1206.4952291926099</v>
       </c>
       <c r="D247">
         <f t="shared" si="3"/>
-        <v>0.42488091979452586</v>
+        <v>0.36751946370162641</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,11 +9242,11 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>1400.0331932843601</v>
+        <v>1211.99023482282</v>
       </c>
       <c r="D248">
         <f t="shared" si="3"/>
-        <v>0.426474498954028</v>
+        <v>0.36919333813841443</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -8051,11 +9254,11 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>1424.05101827669</v>
+        <v>1236.33404443054</v>
       </c>
       <c r="D249">
         <f t="shared" si="3"/>
-        <v>0.4337907468320803</v>
+        <v>0.37660888660889702</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -8063,11 +9266,11 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>1417.5106425797301</v>
+        <v>1230.5229318105</v>
       </c>
       <c r="D250">
         <f t="shared" si="3"/>
-        <v>0.43179843446283667</v>
+        <v>0.37483872047649047</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -8075,11 +9278,11 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>817.88122125978396</v>
+        <v>640.25322433670704</v>
       </c>
       <c r="D251">
         <f t="shared" si="3"/>
-        <v>0.24914086731215748</v>
+        <v>0.19503228520756838</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -8087,11 +9290,11 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>864.80136514435696</v>
+        <v>700.58718514435702</v>
       </c>
       <c r="D252">
         <f t="shared" si="3"/>
-        <v>0.26343356047829725</v>
+        <v>0.21341106067430712</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -8099,11 +9302,11 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>784.83961412874203</v>
+        <v>620.98535566720295</v>
       </c>
       <c r="D253">
         <f t="shared" si="3"/>
-        <v>0.23907581820229337</v>
+        <v>0.18916295676867489</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -8111,11 +9314,11 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>827.16223296231897</v>
+        <v>673.66532219308795</v>
       </c>
       <c r="D254">
         <f t="shared" si="3"/>
-        <v>0.25196802514999395</v>
+        <v>0.20521019224624015</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,11 +9326,11 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>932.84204284683904</v>
+        <v>794.56411823145402</v>
       </c>
       <c r="D255">
         <f t="shared" si="3"/>
-        <v>0.28415993616056634</v>
+        <v>0.24203807155076676</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -8135,11 +9338,11 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>729.32833788262303</v>
+        <v>609.19841942108496</v>
       </c>
       <c r="D256">
         <f t="shared" si="3"/>
-        <v>0.22216611646313342</v>
+        <v>0.185572450662192</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,11 +9350,11 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>928.84802003006405</v>
+        <v>823.47297849160304</v>
       </c>
       <c r="D257">
         <f t="shared" si="3"/>
-        <v>0.28294328723555112</v>
+        <v>0.25084421397218787</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -8159,11 +9362,11 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>948.85720690222797</v>
+        <v>855.07569305607399</v>
       </c>
       <c r="D258">
         <f t="shared" ref="D258:D321" si="4">B258*((PI()/180)^2)</f>
-        <v>0.28903843411257979</v>
+        <v>0.26047095134107284</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -8171,11 +9374,11 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>958.39933054312996</v>
+        <v>873.95600900466798</v>
       </c>
       <c r="D259">
         <f t="shared" si="4"/>
-        <v>0.29194513119535709</v>
+        <v>0.26622222447009142</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -8183,11 +9386,11 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>879.27933692497402</v>
+        <v>803.85742154035904</v>
       </c>
       <c r="D260">
         <f t="shared" si="4"/>
-        <v>0.26784380288585358</v>
+        <v>0.2448689736260207</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -8195,11 +9398,11 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>863.36686781393996</v>
+        <v>797.22220781394003</v>
       </c>
       <c r="D261">
         <f t="shared" si="4"/>
-        <v>0.26299658760281469</v>
+        <v>0.24284777194094559</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -8207,11 +9410,11 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>842.29449507438903</v>
+        <v>787.20235199746605</v>
       </c>
       <c r="D262">
         <f t="shared" si="4"/>
-        <v>0.25657757579010887</v>
+        <v>0.23979554931549643</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -8219,11 +9422,11 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>830.15505682502805</v>
+        <v>784.92476759425801</v>
       </c>
       <c r="D263">
         <f t="shared" si="4"/>
-        <v>0.25287969143292849</v>
+        <v>0.23910175743124476</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -8231,11 +9434,11 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>870.16093292814901</v>
+        <v>831.23057446661005</v>
       </c>
       <c r="D264">
         <f t="shared" si="4"/>
-        <v>0.26506617818776795</v>
+        <v>0.25320731284184228</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -8243,11 +9446,11 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>961.96636242357999</v>
+        <v>928.24123473127202</v>
       </c>
       <c r="D265">
         <f t="shared" si="4"/>
-        <v>0.2930317112430767</v>
+        <v>0.2827584498634686</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -8255,11 +9458,11 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>1125.9726173148799</v>
+        <v>1093.9937296225701</v>
       </c>
       <c r="D266">
         <f t="shared" si="4"/>
-        <v>0.34299087343694573</v>
+        <v>0.3332495471804654</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -8267,11 +9470,11 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>1022.68778353555</v>
+        <v>986.52790661248002</v>
       </c>
       <c r="D267">
         <f t="shared" si="4"/>
-        <v>0.31152851386798719</v>
+        <v>0.30051358545987666</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -8279,11 +9482,11 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>1033.64277397401</v>
+        <v>987.91322474324897</v>
       </c>
       <c r="D268">
         <f t="shared" si="4"/>
-        <v>0.31486559478913889</v>
+        <v>0.30093557749445526</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -8291,11 +9494,11 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>1033.1134236269099</v>
+        <v>971.70527439614796</v>
       </c>
       <c r="D269">
         <f t="shared" si="4"/>
-        <v>0.31470434545224213</v>
+        <v>0.29599835347969022</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -8303,11 +9506,11 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>1322.26975262414</v>
+        <v>1241.32881570106</v>
       </c>
       <c r="D270">
         <f t="shared" si="4"/>
-        <v>0.40278640030637497</v>
+        <v>0.37813038094574758</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -8315,11 +9518,11 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>1327.20555093401</v>
+        <v>1227.46684016478</v>
       </c>
       <c r="D271">
         <f t="shared" si="4"/>
-        <v>0.40428993045211514</v>
+        <v>0.37390778172473949</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -8327,11 +9530,11 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>1301.3518259218999</v>
+        <v>1187.5743105372801</v>
       </c>
       <c r="D272">
         <f t="shared" si="4"/>
-        <v>0.39641443544705107</v>
+        <v>0.36175582228084563</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -8339,11 +9542,11 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>1289.0410003141701</v>
+        <v>1166.73901723725</v>
       </c>
       <c r="D273">
         <f t="shared" si="4"/>
-        <v>0.39266434351498031</v>
+        <v>0.3554090289952912</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -8351,11 +9554,11 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>2321.8198571343501</v>
+        <v>1723.0175771343499</v>
       </c>
       <c r="D274">
         <f t="shared" si="4"/>
-        <v>0.70726677408980998</v>
+        <v>0.52486116859381182</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -8363,11 +9566,11 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>2364.5993887937698</v>
+        <v>1709.0160441783801</v>
       </c>
       <c r="D275">
         <f t="shared" si="4"/>
-        <v>0.72029816464358631</v>
+        <v>0.5205960577517057</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -8375,11 +9578,11 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>2444.9400534845799</v>
+        <v>1768.6759042538099</v>
       </c>
       <c r="D276">
         <f t="shared" si="4"/>
-        <v>0.74477133062565004</v>
+        <v>0.53876949039271915</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -8387,11 +9590,11 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>2499.6978698971502</v>
+        <v>1808.5307406663901</v>
       </c>
       <c r="D277">
         <f t="shared" si="4"/>
-        <v>0.76145151537440148</v>
+        <v>0.55090996782674073</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -8399,11 +9602,11 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>2551.7461227609501</v>
+        <v>1846.23812122249</v>
       </c>
       <c r="D278">
         <f t="shared" si="4"/>
-        <v>0.77730631986617837</v>
+        <v>0.56239629279865533</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -8411,11 +9614,11 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>2609.4193230967999</v>
+        <v>1891.4724215583401</v>
       </c>
       <c r="D279">
         <f t="shared" si="4"/>
-        <v>0.79487458134332678</v>
+        <v>0.57617544865281911</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -8423,11 +9626,11 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>2650.4346499877802</v>
+        <v>1925.14071152624</v>
       </c>
       <c r="D280">
         <f t="shared" si="4"/>
-        <v>0.80736856439256566</v>
+        <v>0.58643139627147145</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -8435,11 +9638,11 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>2674.0873715974499</v>
+        <v>1945.33526852052</v>
       </c>
       <c r="D281">
         <f t="shared" si="4"/>
-        <v>0.81457359542023655</v>
+        <v>0.5925830101168047</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -8447,11 +9650,11 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>2834.30746820079</v>
+        <v>2110.84977897002</v>
       </c>
       <c r="D282">
         <f t="shared" si="4"/>
-        <v>0.86337942784552324</v>
+        <v>0.64300161322719163</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -8459,11 +9662,11 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>2857.0859430249202</v>
+        <v>2130.7649153326101</v>
       </c>
       <c r="D283">
         <f t="shared" si="4"/>
-        <v>0.87031814807312624</v>
+        <v>0.64906811068066428</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -8471,11 +9674,11 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>2864.9398737946399</v>
+        <v>2137.1920461023401</v>
       </c>
       <c r="D284">
         <f t="shared" si="4"/>
-        <v>0.87271059219938163</v>
+        <v>0.65102592667237114</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,11 +9686,11 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>2867.9283387513001</v>
+        <v>2140.73972028976</v>
       </c>
       <c r="D285">
         <f t="shared" si="4"/>
-        <v>0.87362093068360247</v>
+        <v>0.65210661002958692</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -8495,11 +9698,11 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>2866.48413904878</v>
+        <v>2137.7009282795502</v>
       </c>
       <c r="D286">
         <f t="shared" si="4"/>
-        <v>0.87318100229656415</v>
+        <v>0.65118094104816837</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -8507,11 +9710,11 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>2861.1943195999802</v>
+        <v>2128.99507806152</v>
       </c>
       <c r="D287">
         <f t="shared" si="4"/>
-        <v>0.87156963114493313</v>
+        <v>0.64852898741770237</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -8519,11 +9722,11 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>2851.6460726589598</v>
+        <v>2121.6099188128101</v>
       </c>
       <c r="D288">
         <f t="shared" si="4"/>
-        <v>0.86866106879827321</v>
+        <v>0.64627933926264647</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -8531,11 +9734,11 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>2847.9449472043202</v>
+        <v>2115.2553487427799</v>
       </c>
       <c r="D289">
         <f t="shared" si="4"/>
-        <v>0.86753364151197399</v>
+        <v>0.64434362652406008</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -8543,11 +9746,11 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>2848.4697612053601</v>
+        <v>2109.36695658998</v>
       </c>
       <c r="D290">
         <f t="shared" si="4"/>
-        <v>0.86769350899883868</v>
+        <v>0.64254991969978181</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -8555,11 +9758,11 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>2837.9393427666701</v>
+        <v>2099.21444122821</v>
       </c>
       <c r="D291">
         <f t="shared" si="4"/>
-        <v>0.86448576010477052</v>
+        <v>0.63945728666593449</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,11 +9770,11 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>2840.9260590533099</v>
+        <v>2098.4770359763902</v>
       </c>
       <c r="D292">
         <f t="shared" si="4"/>
-        <v>0.86539556591364175</v>
+        <v>0.63923266018078795</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -8579,11 +9782,11 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>2842.5003375046099</v>
+        <v>2097.6252744276899</v>
       </c>
       <c r="D293">
         <f t="shared" si="4"/>
-        <v>0.86587511855350252</v>
+        <v>0.63897319877554937</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -8591,11 +9794,11 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>2838.06712289797</v>
+        <v>2092.4172659748901</v>
       </c>
       <c r="D294">
         <f t="shared" si="4"/>
-        <v>0.86452468415866712</v>
+        <v>0.63738674867843015</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -8603,11 +9806,11 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>2836.7692452567499</v>
+        <v>2092.9775144875198</v>
       </c>
       <c r="D295">
         <f t="shared" si="4"/>
-        <v>0.86412932802039977</v>
+        <v>0.63755741013478673</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -8615,11 +9818,11 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>2838.9891983374901</v>
+        <v>2093.6929352605698</v>
       </c>
       <c r="D296">
         <f t="shared" si="4"/>
-        <v>0.86480556439990242</v>
+        <v>0.63777533976473499</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -8627,11 +9830,11 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>2833.1493124517801</v>
+        <v>2089.8737709133202</v>
       </c>
       <c r="D297">
         <f t="shared" si="4"/>
-        <v>0.86302663342954866</v>
+        <v>0.63661195577553442</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -8639,11 +9842,11 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>2833.4536133625802</v>
+        <v>2087.6832441318102</v>
       </c>
       <c r="D298">
         <f t="shared" si="4"/>
-        <v>0.86311932878783537</v>
+        <v>0.63594468315937724</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -8651,11 +9854,11 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>2830.37211423695</v>
+        <v>2086.9676557754201</v>
       </c>
       <c r="D299">
         <f t="shared" si="4"/>
-        <v>0.86218065047511083</v>
+        <v>0.63572670248062424</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -8663,11 +9866,11 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>2827.1822845199599</v>
+        <v>2084.05888451996</v>
       </c>
       <c r="D300">
         <f t="shared" si="4"/>
-        <v>0.86120897277716235</v>
+        <v>0.63484064008603625</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -8675,11 +9878,11 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>2829.0495132087599</v>
+        <v>2086.5216085933698</v>
       </c>
       <c r="D301">
         <f t="shared" si="4"/>
-        <v>0.86177776316249632</v>
+        <v>0.63559082873892492</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -8687,11 +9890,11 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>2824.7051856064099</v>
+        <v>2081.6521609910201</v>
       </c>
       <c r="D302">
         <f t="shared" si="4"/>
-        <v>0.86045440529756034</v>
+        <v>0.63410751017451061</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -8699,11 +9902,11 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>2822.4650384299798</v>
+        <v>2082.7353999684401</v>
       </c>
       <c r="D303">
         <f t="shared" si="4"/>
-        <v>0.85977201744473375</v>
+        <v>0.63443748363682473</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -8711,11 +9914,11 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>2818.6310764959799</v>
+        <v>2080.3162611113698</v>
       </c>
       <c r="D304">
         <f t="shared" si="4"/>
-        <v>0.85860412585283818</v>
+        <v>0.63370057180007822</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -8723,11 +9926,11 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>2957.7481505453902</v>
+        <v>2211.18357054539</v>
       </c>
       <c r="D305">
         <f t="shared" si="4"/>
-        <v>0.900981609998046</v>
+        <v>0.67356503393429823</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -8735,11 +9938,11 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>2991.3738060795799</v>
+        <v>2240.1735291565001</v>
       </c>
       <c r="D306">
         <f t="shared" si="4"/>
-        <v>0.91122457042550753</v>
+        <v>0.68239588032613796</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -8747,11 +9950,11 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>3007.41947421438</v>
+        <v>2253.703489599</v>
       </c>
       <c r="D307">
         <f t="shared" si="4"/>
-        <v>0.91611236045148414</v>
+        <v>0.6865173419659486</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -8759,11 +9962,11 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>3020.91770070968</v>
+        <v>2265.5906422481398</v>
       </c>
       <c r="D308">
         <f t="shared" si="4"/>
-        <v>0.92022415537817903</v>
+        <v>0.69013837573454029</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -8771,11 +9974,11 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>3033.3557829144702</v>
+        <v>2277.24967522217</v>
       </c>
       <c r="D309">
         <f t="shared" si="4"/>
-        <v>0.9240130118864972</v>
+        <v>0.6936899202762975</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -8783,11 +9986,11 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>3044.91744732798</v>
+        <v>2286.8175073279699</v>
       </c>
       <c r="D310">
         <f t="shared" si="4"/>
-        <v>0.92753489626858032</v>
+        <v>0.69660444860531867</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -8795,11 +9998,11 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>3050.0055516665898</v>
+        <v>2290.7986162819702</v>
       </c>
       <c r="D311">
         <f t="shared" si="4"/>
-        <v>0.92908482148381322</v>
+        <v>0.69781716374277603</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -8807,11 +10010,11 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>3067.0108404563698</v>
+        <v>2307.7379373794502</v>
       </c>
       <c r="D312">
         <f t="shared" si="4"/>
-        <v>0.93426492867768385</v>
+        <v>0.70297717602842891</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -8819,11 +10022,11 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>3074.4870544605001</v>
+        <v>2315.3380052297298</v>
       </c>
       <c r="D313">
         <f t="shared" si="4"/>
-        <v>0.93654231369739527</v>
+        <v>0.705292289087185</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -8831,11 +10034,11 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>3074.64569663668</v>
+        <v>2316.18048125206</v>
       </c>
       <c r="D314">
         <f t="shared" si="4"/>
-        <v>0.93659063886777261</v>
+        <v>0.70554892195933938</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -8843,11 +10046,11 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>3075.7519186742902</v>
+        <v>2318.7508048281402</v>
       </c>
       <c r="D315">
         <f t="shared" si="4"/>
-        <v>0.93692761337058061</v>
+        <v>0.70633188729510188</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -8855,11 +10058,11 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>3248.0920418877899</v>
+        <v>2492.4203018877902</v>
       </c>
       <c r="D316">
         <f t="shared" si="4"/>
-        <v>0.9894254170296003</v>
+        <v>0.75923464138506791</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -8867,11 +10070,11 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>3261.21415195382</v>
+        <v>2506.8596242615099</v>
       </c>
       <c r="D317">
         <f t="shared" si="4"/>
-        <v>0.99342264034007155</v>
+        <v>0.76363311051001892</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -8879,11 +10082,11 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>3248.6090254803598</v>
+        <v>2505.1156331726702</v>
       </c>
       <c r="D318">
         <f t="shared" si="4"/>
-        <v>0.98958289923764098</v>
+        <v>0.76310186044440553</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -8891,11 +10094,11 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>3236.6998147100398</v>
+        <v>2505.0036270177302</v>
       </c>
       <c r="D319">
         <f t="shared" si="4"/>
-        <v>0.98595514618109004</v>
+        <v>0.76306774141848743</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -8903,11 +10106,11 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>3219.94952228789</v>
+        <v>2501.3243484417299</v>
       </c>
       <c r="D320">
         <f t="shared" si="4"/>
-        <v>0.98085271532278195</v>
+        <v>0.76194696907198967</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -8915,11 +10118,11 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>3193.0930122391901</v>
+        <v>2487.9878599315002</v>
       </c>
       <c r="D321">
         <f t="shared" si="4"/>
-        <v>0.97267175452727117</v>
+        <v>0.75788444235298846</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -8927,11 +10130,11 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>3178.13575299998</v>
+        <v>2487.5620837692099</v>
       </c>
       <c r="D322">
         <f t="shared" ref="D322:D385" si="5">B322*((PI()/180)^2)</f>
-        <v>0.96811551281074204</v>
+        <v>0.75775474351702499</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -8939,11 +10142,11 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>3158.2465370014302</v>
+        <v>2484.2893370014299</v>
       </c>
       <c r="D323">
         <f t="shared" si="5"/>
-        <v>0.96205691115168324</v>
+        <v>0.75675780784100843</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -8951,11 +10154,11 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>3155.4577625689199</v>
+        <v>2495.86193179969</v>
       </c>
       <c r="D324">
         <f t="shared" si="5"/>
-        <v>0.96120740187968479</v>
+        <v>0.76028302180869156</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -8963,11 +10166,11 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>3121.5471440441902</v>
+        <v>2492.37510712112</v>
       </c>
       <c r="D325">
         <f t="shared" si="5"/>
-        <v>0.95087763676131032</v>
+        <v>0.75922087427185692</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,11 +10178,11 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>3098.1015403167198</v>
+        <v>2486.1198864705698</v>
       </c>
       <c r="D326">
         <f t="shared" si="5"/>
-        <v>0.94373569744850672</v>
+        <v>0.75731542509708982</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -8987,11 +10190,11 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>3080.7971525585899</v>
+        <v>2480.3285710201299</v>
       </c>
       <c r="D327">
         <f t="shared" si="5"/>
-        <v>0.93846447949863643</v>
+        <v>0.75555128952740591</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -8999,11 +10202,11 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>3069.3083469172502</v>
+        <v>2478.4455899941699</v>
       </c>
       <c r="D328">
         <f t="shared" si="5"/>
-        <v>0.93496478916774051</v>
+        <v>0.75497770070577064</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -9011,11 +10214,11 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>3068.9702564402101</v>
+        <v>2472.2802579786799</v>
       </c>
       <c r="D329">
         <f t="shared" si="5"/>
-        <v>0.93486180091897009</v>
+        <v>0.75309963317508366</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -9023,11 +10226,11 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>3058.6738623630399</v>
+        <v>2466.5356208245798</v>
       </c>
       <c r="D330">
         <f t="shared" si="5"/>
-        <v>0.9317253399220754</v>
+        <v>0.75134971662759087</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -9035,11 +10238,11 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>2700.2960958630101</v>
+        <v>2514.4877866322399</v>
       </c>
       <c r="D331">
         <f t="shared" si="5"/>
-        <v>0.82255722938191278</v>
+        <v>0.76595678164910475</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -9047,11 +10250,11 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>2684.0787203506102</v>
+        <v>2503.6761388121599</v>
       </c>
       <c r="D332">
         <f t="shared" si="5"/>
-        <v>0.8176171342976134</v>
+        <v>0.76266336538650936</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -9059,11 +10262,11 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>2669.9701014532502</v>
+        <v>2494.7215522224801</v>
       </c>
       <c r="D333">
         <f t="shared" si="5"/>
-        <v>0.81331940321234564</v>
+        <v>0.75993564232430444</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -9119,11 +10322,11 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>2442.9580172854899</v>
+        <v>2389.8256911316398</v>
       </c>
       <c r="D338">
         <f t="shared" si="5"/>
-        <v>0.74416756787275928</v>
+        <v>0.72798253577250771</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -9131,11 +10334,11 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>2482.4637894730499</v>
+        <v>2429.10026485767</v>
       </c>
       <c r="D339">
         <f t="shared" si="5"/>
-        <v>0.75620171426321536</v>
+        <v>0.73994625508415379</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -9143,11 +10346,11 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>2475.72546249181</v>
+        <v>2424.02879787643</v>
       </c>
       <c r="D340">
         <f t="shared" si="5"/>
-        <v>0.75414910248451095</v>
+        <v>0.73840139789779502</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -9155,11 +10358,11 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>2460.1260930619201</v>
+        <v>2409.0963515234598</v>
       </c>
       <c r="D341">
         <f t="shared" si="5"/>
-        <v>0.74939726281847818</v>
+        <v>0.73385271461864976</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -9167,11 +10370,11 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>2390.3257162783998</v>
+        <v>2221.6492855091701</v>
       </c>
       <c r="D342">
         <f t="shared" si="5"/>
-        <v>0.72813485214254214</v>
+        <v>0.67675307302278798</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -9179,11 +10382,11 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>2446.3237416309098</v>
+        <v>2184.0976739386001</v>
       </c>
       <c r="D343">
         <f t="shared" si="5"/>
-        <v>0.7451928261385744</v>
+        <v>0.66531419799732827</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -9191,11 +10394,11 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>2045.0934483662199</v>
+        <v>1771.9931329816</v>
       </c>
       <c r="D344">
         <f t="shared" si="5"/>
-        <v>0.62297108946402024</v>
+        <v>0.53977997604862094</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -9203,11 +10406,11 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>2103.3376000712901</v>
+        <v>1840.9488539174399</v>
       </c>
       <c r="D345">
         <f t="shared" si="5"/>
-        <v>0.64071327267408429</v>
+        <v>0.56078508983962883</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -9215,11 +10418,11 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>2006.0771124442399</v>
+        <v>1755.66476782886</v>
       </c>
       <c r="D346">
         <f t="shared" si="5"/>
-        <v>0.61108603388593519</v>
+        <v>0.5348060715864581</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -9227,11 +10430,11 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>1805.4308707891901</v>
+        <v>1627.9492092507301</v>
       </c>
       <c r="D347">
         <f t="shared" si="5"/>
-        <v>0.54996569346307356</v>
+        <v>0.49590168766576992</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -9239,11 +10442,11 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>1672.1912392106899</v>
+        <v>1424.8299361337599</v>
       </c>
       <c r="D348">
         <f t="shared" si="5"/>
-        <v>0.50937858067829911</v>
+        <v>0.43402801877992669</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -9251,11 +10454,11 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>2460.0788054620898</v>
+        <v>2577.4084870005499</v>
       </c>
       <c r="D349">
         <f t="shared" si="5"/>
-        <v>0.74938285819182993</v>
+        <v>0.78512352304647193</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -9263,11 +10466,11 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>2033.9923655218399</v>
+        <v>2235.63181321414</v>
       </c>
       <c r="D350">
         <f t="shared" si="5"/>
-        <v>0.61958950625112674</v>
+        <v>0.68101239453437212</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -9275,11 +10478,11 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>2094.4670227544102</v>
+        <v>2225.1033566005699</v>
       </c>
       <c r="D351">
         <f t="shared" si="5"/>
-        <v>0.63801114029979789</v>
+        <v>0.67780524324641012</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -9287,11 +10490,11 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>2070.9416346235998</v>
+        <v>2279.5714746235999</v>
       </c>
       <c r="D352">
         <f t="shared" si="5"/>
-        <v>0.6308448972679096</v>
+        <v>0.69439718081922341</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -9299,11 +10502,11 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>2066.2367470014101</v>
+        <v>2287.2128193090998</v>
       </c>
       <c r="D353">
         <f t="shared" si="5"/>
-        <v>0.62941170654005174</v>
+        <v>0.69672486752102125</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -9311,11 +10514,11 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>2199.4880599892399</v>
+        <v>2360.0476584507801</v>
       </c>
       <c r="D354">
         <f t="shared" si="5"/>
-        <v>0.67000237768559556</v>
+        <v>0.71891162829093991</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -9323,11 +10526,11 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>2314.7854991182198</v>
+        <v>2463.81564065668</v>
       </c>
       <c r="D355">
         <f t="shared" si="5"/>
-        <v>0.70512398610108051</v>
+        <v>0.75052116328697416</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -9335,11 +10538,11 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>2379.7634744049301</v>
+        <v>2535.2990790203098</v>
       </c>
       <c r="D356">
         <f t="shared" si="5"/>
-        <v>0.72491740927588266</v>
+        <v>0.77229626383878536</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -9347,11 +10550,11 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>2496.60584829448</v>
+        <v>2628.5020713714098</v>
       </c>
       <c r="D357">
         <f t="shared" si="5"/>
-        <v>0.76050963173187125</v>
+        <v>0.80068751888517775</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -9359,11 +10562,11 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>2566.7190975886301</v>
+        <v>2688.8096083578598</v>
       </c>
       <c r="D358">
         <f t="shared" si="5"/>
-        <v>0.78186734882471753</v>
+        <v>0.8190582451956816</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -9371,11 +10574,11 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>2639.4540924727098</v>
+        <v>2800.7875478573301</v>
       </c>
       <c r="D359">
         <f t="shared" si="5"/>
-        <v>0.80402369529450535</v>
+        <v>0.85316867619904246</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -9383,11 +10586,11 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>2715.8243266683698</v>
+        <v>2849.4201651299099</v>
       </c>
       <c r="D360">
         <f t="shared" si="5"/>
-        <v>0.82728739898369397</v>
+        <v>0.86798301859009019</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -9395,11 +10598,11 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>2620.3432224385401</v>
+        <v>2837.49924705393</v>
       </c>
       <c r="D361">
         <f t="shared" si="5"/>
-        <v>0.7982021913748174</v>
+        <v>0.86435169928429645</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -9407,11 +10610,11 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>3136.03179132181</v>
+        <v>2944.51510516796</v>
       </c>
       <c r="D362">
         <f t="shared" si="5"/>
-        <v>0.95528991264153951</v>
+        <v>0.8969505938592528</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -9419,11 +10622,11 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>3252.4339687676502</v>
+        <v>3024.86579338303</v>
       </c>
       <c r="D363">
         <f t="shared" si="5"/>
-        <v>0.9907480435926459</v>
+        <v>0.92142681318141373</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -9431,11 +10634,11 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>3304.2200154874499</v>
+        <v>3097.3509631797501</v>
       </c>
       <c r="D364">
         <f t="shared" si="5"/>
-        <v>1.0065229755253853</v>
+        <v>0.94350705857769201</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -9443,11 +10646,11 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>3289.4200285020202</v>
+        <v>3236.1509438866301</v>
       </c>
       <c r="D365">
         <f t="shared" si="5"/>
-        <v>1.0020146416770068</v>
+        <v>0.98578795056706681</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -9455,11 +10658,11 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>3291.3444636314198</v>
+        <v>3177.3526559391098</v>
       </c>
       <c r="D366">
         <f t="shared" si="5"/>
-        <v>1.0026008581406713</v>
+        <v>0.96787696780461718</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -9467,11 +10670,11 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>3299.5164247020598</v>
+        <v>3172.2520585482198</v>
       </c>
       <c r="D367">
         <f t="shared" si="5"/>
-        <v>1.0050901798366072</v>
+        <v>0.96632323698803346</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -9479,11 +10682,11 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>3294.3937329518099</v>
+        <v>3177.1877621825802</v>
       </c>
       <c r="D368">
         <f t="shared" si="5"/>
-        <v>1.0035297186932834</v>
+        <v>0.96782673829396426</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -9491,11 +10694,11 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>3311.0952473920702</v>
+        <v>3143.7582427766902</v>
       </c>
       <c r="D369">
         <f t="shared" si="5"/>
-        <v>1.008617290928606</v>
+        <v>0.95764352434783229</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -9503,11 +10706,11 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>3187.1431861169699</v>
+        <v>3019.2640168861999</v>
       </c>
       <c r="D370">
         <f t="shared" si="5"/>
-        <v>0.97085933384574086</v>
+        <v>0.91972041447872754</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -9515,11 +10718,11 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>2801.97457362978</v>
+        <v>2607.25994747594</v>
       </c>
       <c r="D371">
         <f t="shared" si="5"/>
-        <v>0.85353026492706641</v>
+        <v>0.79421679791335009</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -9527,11 +10730,11 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>2794.98617655627</v>
+        <v>2574.15021809473</v>
       </c>
       <c r="D372">
         <f t="shared" si="5"/>
-        <v>0.85140147744208883</v>
+        <v>0.78413099757940974</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -9539,11 +10742,11 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>2448.49603922494</v>
+        <v>2236.1166976864802</v>
       </c>
       <c r="D373">
         <f t="shared" si="5"/>
-        <v>0.74585454582667676</v>
+        <v>0.68116009879123107</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -9551,11 +10754,11 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>2518.0677851963401</v>
+        <v>2316.9935605809601</v>
       </c>
       <c r="D374">
         <f t="shared" si="5"/>
-        <v>0.76704731157454098</v>
+        <v>0.70579660008659084</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -9563,11 +10766,11 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>2512.51179472899</v>
+        <v>2281.7764270366802</v>
       </c>
       <c r="D375">
         <f t="shared" si="5"/>
-        <v>0.76535486009401732</v>
+        <v>0.69506884773404842</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -9575,11 +10778,11 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>2482.0540509019902</v>
+        <v>2248.6322016712202</v>
       </c>
       <c r="D376">
         <f t="shared" si="5"/>
-        <v>0.75607690075691203</v>
+        <v>0.68497253932239277</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -9587,11 +10790,11 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>2521.5527948313602</v>
+        <v>2241.4255194467501</v>
       </c>
       <c r="D377">
         <f t="shared" si="5"/>
-        <v>0.76810890621749273</v>
+        <v>0.682777258377952</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -9599,11 +10802,11 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>2569.6280341087499</v>
+        <v>2189.05819257029</v>
       </c>
       <c r="D378">
         <f t="shared" si="5"/>
-        <v>0.78275346156179981</v>
+        <v>0.66682525838371753</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -9611,11 +10814,11 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>2666.5461838367901</v>
+        <v>2137.7828269137199</v>
       </c>
       <c r="D379">
         <f t="shared" si="5"/>
-        <v>0.81227641826245722</v>
+        <v>0.65120588879879315</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -9623,11 +10826,11 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>2320.1610825789198</v>
+        <v>1717.88627488661</v>
       </c>
       <c r="D380">
         <f t="shared" si="5"/>
-        <v>0.70676148246472703</v>
+        <v>0.52329808454295945</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -9635,11 +10838,11 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>2958.5068019189298</v>
+        <v>2275.3704142266201</v>
       </c>
       <c r="D381">
         <f t="shared" si="5"/>
-        <v>0.90121270842197132</v>
+        <v>0.69311746464072732</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -9647,11 +10850,11 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>3080.5329543186999</v>
+        <v>2416.5437850879298</v>
       </c>
       <c r="D382">
         <f t="shared" si="5"/>
-        <v>0.9383840001124889</v>
+        <v>0.73612133261509161</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -9659,11 +10862,11 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>3105.4726548026802</v>
+        <v>2545.9243455719102</v>
       </c>
       <c r="D383">
         <f t="shared" si="5"/>
-        <v>0.94598106732417231</v>
+        <v>0.77553290512027984</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -9671,11 +10874,11 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>3249.1846055585602</v>
+        <v>2818.9630978662599</v>
       </c>
       <c r="D384">
         <f t="shared" si="5"/>
-        <v>0.98975823095594306</v>
+        <v>0.85870526534596692</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -9683,11 +10886,11 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>3267.6671332682599</v>
+        <v>2443.2320055759501</v>
       </c>
       <c r="D385">
         <f t="shared" si="5"/>
-        <v>0.99538833085800815</v>
+        <v>0.74425102947885113</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -9695,11 +10898,11 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>3456.6900439702099</v>
+        <v>2671.16043473944</v>
       </c>
       <c r="D386">
         <f t="shared" ref="D386:D449" si="6">B386*((PI()/180)^2)</f>
-        <v>1.0529680021966095</v>
+        <v>0.81368199946667097</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -9707,11 +10910,11 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>2956.3795149449802</v>
+        <v>2170.8500349449801</v>
       </c>
       <c r="D387">
         <f t="shared" si="6"/>
-        <v>0.90056469975282094</v>
+        <v>0.66127873638882595</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -9719,11 +10922,11 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>3616.3805053046799</v>
+        <v>1955.1135483816099</v>
       </c>
       <c r="D388">
         <f t="shared" si="6"/>
-        <v>1.101612498492865</v>
+        <v>0.59556164449804228</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -9731,11 +10934,11 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>3626.5498183198301</v>
+        <v>1965.2828613967499</v>
       </c>
       <c r="D389">
         <f t="shared" si="6"/>
-        <v>1.1047102483845435</v>
+        <v>0.5986593943897176</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -9743,11 +10946,11 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>3663.5292617534501</v>
+        <v>2002.2623048303799</v>
       </c>
       <c r="D390">
         <f t="shared" si="6"/>
-        <v>1.1159748310284412</v>
+        <v>0.60992397703361845</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -9755,11 +10958,11 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>3624.4892500545402</v>
+        <v>1982.6952700545401</v>
       </c>
       <c r="D391">
         <f t="shared" si="6"/>
-        <v>1.1040825633962763</v>
+        <v>0.60396351738732534</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -9767,11 +10970,11 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>3633.9708348732001</v>
+        <v>2011.53911795012</v>
       </c>
       <c r="D392">
         <f t="shared" si="6"/>
-        <v>1.1069708192992254</v>
+        <v>0.6127498559099972</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -9779,11 +10982,11 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>3604.6646471991398</v>
+        <v>2001.48245796837</v>
       </c>
       <c r="D393">
         <f t="shared" si="6"/>
-        <v>1.0980436440261681</v>
+        <v>0.60968642209468427</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -9791,11 +10994,11 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>3791.1224349729</v>
+        <v>2207.07654420367</v>
       </c>
       <c r="D394">
         <f t="shared" si="6"/>
-        <v>1.1548419342369487</v>
+        <v>0.67231396216708739</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -9803,11 +11006,11 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>4949.1668050756498</v>
+        <v>2558.69586661412</v>
       </c>
       <c r="D395">
         <f t="shared" si="6"/>
-        <v>1.5076024222561726</v>
+        <v>0.77942333290690946</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -9815,11 +11018,11 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>5087.8046595787901</v>
+        <v>2498.0973703480299</v>
       </c>
       <c r="D396">
         <f t="shared" si="6"/>
-        <v>1.5498339277796842</v>
+        <v>0.76096397533137861</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -9827,11 +11030,11 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>4979.2558368404898</v>
+        <v>2337.5352491481799</v>
       </c>
       <c r="D397">
         <f t="shared" si="6"/>
-        <v>1.5167680654762583</v>
+        <v>0.71205395625599954</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -9839,11 +11042,11 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>3915.40142998174</v>
+        <v>2874.7060499817399</v>
       </c>
       <c r="D398">
         <f t="shared" si="6"/>
-        <v>1.1926994810302267</v>
+        <v>0.87568553959067852</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -9851,11 +11054,11 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>3759.9950915210402</v>
+        <v>2634.2784469056601</v>
       </c>
       <c r="D399">
         <f t="shared" si="6"/>
-        <v>1.1453600031898283</v>
+        <v>0.80244710349614012</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -9863,11 +11066,11 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>3714.06346192704</v>
+        <v>2504.8704973116601</v>
       </c>
       <c r="D400">
         <f t="shared" si="6"/>
-        <v>1.1313684286963053</v>
+        <v>0.76302718779092737</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -9875,11 +11078,11 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>3636.0494292482699</v>
+        <v>2309.81174155596</v>
       </c>
       <c r="D401">
         <f t="shared" si="6"/>
-        <v>1.1076039953545422</v>
+        <v>0.70360889290582029</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -9887,11 +11090,11 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>3619.58574375122</v>
+        <v>2189.04558836661</v>
       </c>
       <c r="D402">
         <f t="shared" si="6"/>
-        <v>1.1025888699582511</v>
+        <v>0.66682141892371405</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -9899,11 +11102,11 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>3679.83479365722</v>
+        <v>2171.3941367341399</v>
       </c>
       <c r="D403">
         <f t="shared" si="6"/>
-        <v>1.1209417800852175</v>
+        <v>0.66144447927194117</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -9911,11 +11114,11 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>3965.0400278616698</v>
+        <v>2349.67898324629</v>
       </c>
       <c r="D404">
         <f t="shared" si="6"/>
-        <v>1.2078202626382408</v>
+        <v>0.71575314920354172</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -9923,11 +11126,11 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>3665.2059791669499</v>
+        <v>1953.0142391669499</v>
       </c>
       <c r="D405">
         <f t="shared" si="6"/>
-        <v>1.116485588360653</v>
+        <v>0.59492215834173801</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -9935,11 +11138,11 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>3974.16202640031</v>
+        <v>2184.9223017849199</v>
       </c>
       <c r="D406">
         <f t="shared" si="6"/>
-        <v>1.2105989822963796</v>
+        <v>0.66556539400415848</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -9947,11 +11150,11 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>4287.36724351659</v>
+        <v>2442.4282127473598</v>
       </c>
       <c r="D407">
         <f t="shared" si="6"/>
-        <v>1.3060067473980768</v>
+        <v>0.74400618018136289</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -9959,11 +11162,11 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>4144.6417200943097</v>
+        <v>2506.3254831712402</v>
       </c>
       <c r="D408">
         <f t="shared" si="6"/>
-        <v>1.2625300667154742</v>
+        <v>0.76347040182929882</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -9971,11 +11174,11 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>4261.2179452968303</v>
+        <v>2546.6717729891402</v>
       </c>
       <c r="D409">
         <f t="shared" si="6"/>
-        <v>1.2980412156451404</v>
+        <v>0.77576058453159435</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -9983,11 +11186,11 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>4239.1999873192799</v>
+        <v>2540.9345288577401</v>
       </c>
       <c r="D410">
         <f t="shared" si="6"/>
-        <v>1.2913341620970467</v>
+        <v>0.7740129200276008</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -9995,11 +11198,11 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>4141.5467437903599</v>
+        <v>2547.8924668672798</v>
       </c>
       <c r="D411">
         <f t="shared" si="6"/>
-        <v>1.2615872830194641</v>
+        <v>0.77613242915110259</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -10007,11 +11210,11 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>4104.7994865972196</v>
+        <v>2542.74120044337</v>
       </c>
       <c r="D412">
         <f t="shared" si="6"/>
-        <v>1.250393428349051</v>
+        <v>0.7745632636644173</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -10019,11 +11222,11 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>4312.4032437388796</v>
+        <v>2923.0086422004201</v>
       </c>
       <c r="D413">
         <f t="shared" si="6"/>
-        <v>1.3136331491875699</v>
+        <v>0.89039935060134245</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -10031,11 +11234,11 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>6239.1384741056299</v>
+        <v>2799.9673433364001</v>
       </c>
       <c r="D414">
         <f t="shared" si="6"/>
-        <v>1.900550263674039</v>
+        <v>0.85291882761417936</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -10043,11 +11246,11 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>6172.9713290548998</v>
+        <v>2718.2991936702902</v>
       </c>
       <c r="D415">
         <f t="shared" si="6"/>
-        <v>1.8803945986740327</v>
+        <v>0.82804128658413423</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -10055,11 +11258,11 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>6302.7994672375398</v>
+        <v>2812.13855185292</v>
       </c>
       <c r="D416">
         <f t="shared" si="6"/>
-        <v>1.9199425111429409</v>
+        <v>0.85662638974816763</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -10067,11 +11270,11 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>6169.8562623950402</v>
+        <v>2696.33380239504</v>
       </c>
       <c r="D417">
         <f t="shared" si="6"/>
-        <v>1.8794456951056426</v>
+        <v>0.82135024576926208</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -10079,11 +11282,11 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>6173.2177588451896</v>
+        <v>2738.0232480759601</v>
       </c>
       <c r="D418">
         <f t="shared" si="6"/>
-        <v>1.8804696654809094</v>
+        <v>0.83404957714492201</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -10091,11 +11294,11 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>6240.9730248148999</v>
+        <v>2798.0373925072099</v>
       </c>
       <c r="D419">
         <f t="shared" si="6"/>
-        <v>1.9011090997775648</v>
+        <v>0.85233093097227619</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -10103,11 +11306,11 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>6125.4949405541001</v>
+        <v>2766.26110363102</v>
       </c>
       <c r="D420">
         <f t="shared" si="6"/>
-        <v>1.8659324637081278</v>
+        <v>0.8426513198444141</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -10115,11 +11318,11 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>6257.6697302940302</v>
+        <v>2871.1154195248</v>
       </c>
       <c r="D421">
         <f t="shared" si="6"/>
-        <v>1.906195207119556</v>
+        <v>0.87459177100547791</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -10127,11 +11330,11 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>6338.6452988194496</v>
+        <v>2927.8047372809901</v>
       </c>
       <c r="D422">
         <f t="shared" si="6"/>
-        <v>1.930861775869531</v>
+        <v>0.89186032470983734</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -10139,11 +11342,11 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>6329.6216384160398</v>
+        <v>2940.18669533912</v>
       </c>
       <c r="D423">
         <f t="shared" si="6"/>
-        <v>1.9281130117204128</v>
+        <v>0.89563208482541212</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -10151,11 +11354,11 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>6320.8842563043299</v>
+        <v>2960.6021778427898</v>
       </c>
       <c r="D424">
         <f t="shared" si="6"/>
-        <v>1.9254514529258533</v>
+        <v>0.90185099642938071</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -10163,11 +11366,11 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>6279.4125514560001</v>
+        <v>2958.4429714560001</v>
       </c>
       <c r="D425">
         <f t="shared" si="6"/>
-        <v>1.9128184492007991</v>
+        <v>0.90119326455104987</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -10175,11 +11378,11 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>7062.63309187908</v>
+        <v>3767.0617195713799</v>
       </c>
       <c r="D426">
         <f t="shared" si="6"/>
-        <v>2.1514010693484291</v>
+        <v>1.1475126211931153</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -10187,11 +11390,11 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>7361.5161296665501</v>
+        <v>3771.5375188973198</v>
       </c>
       <c r="D427">
         <f t="shared" si="6"/>
-        <v>2.2424460491372615</v>
+        <v>1.1488760276352661</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -10199,11 +11402,11 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>6399.5239360297501</v>
+        <v>2804.6745298759101</v>
       </c>
       <c r="D428">
         <f t="shared" si="6"/>
-        <v>1.9494064692566639</v>
+        <v>0.85435271863229967</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -10211,11 +11414,11 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>5841.8369376164301</v>
+        <v>2272.0865283856601</v>
       </c>
       <c r="D429">
         <f t="shared" si="6"/>
-        <v>1.7795252947514042</v>
+        <v>0.69211713580897993</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -10223,11 +11426,11 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>5948.9417445748204</v>
+        <v>2386.8311307286699</v>
       </c>
       <c r="D430">
         <f t="shared" si="6"/>
-        <v>1.8121512846938226</v>
+        <v>0.72707034050915953</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -10235,11 +11438,11 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>7450.2134465639001</v>
+        <v>3771.6064681023599</v>
       </c>
       <c r="D431">
         <f t="shared" si="6"/>
-        <v>2.2694647969525366</v>
+        <v>1.1488970307642019</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -10247,11 +11450,11 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>5919.8106917983396</v>
+        <v>2285.8937117983401</v>
       </c>
       <c r="D432">
         <f t="shared" si="6"/>
-        <v>1.8032774585613804</v>
+        <v>0.69632304439467241</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -10259,11 +11462,11 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>5566.5603682479796</v>
+        <v>2036.3446605556701</v>
       </c>
       <c r="D433">
         <f t="shared" si="6"/>
-        <v>1.6956712564626499</v>
+        <v>0.62030605629490909</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -10271,11 +11474,11 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>6348.0341947135603</v>
+        <v>2796.7911870212502</v>
       </c>
       <c r="D434">
         <f t="shared" si="6"/>
-        <v>1.9337217971114411</v>
+        <v>0.85195131507261912</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -10283,11 +11486,11 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>6674.2231575612605</v>
+        <v>3092.6818852535598</v>
       </c>
       <c r="D435">
         <f t="shared" si="6"/>
-        <v>2.0330846373370099</v>
+        <v>0.9420847761070329</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -10295,11 +11498,11 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>6709.8673501698304</v>
+        <v>3382.5869932467499</v>
       </c>
       <c r="D436">
         <f t="shared" si="6"/>
-        <v>2.0439424793198131</v>
+        <v>1.0303949220869055</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -10307,11 +11510,11 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>6902.0732983124599</v>
+        <v>3374.4683429278498</v>
       </c>
       <c r="D437">
         <f t="shared" si="6"/>
-        <v>2.1024917593106789</v>
+        <v>1.0279218397746117</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -10319,11 +11522,11 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>7306.3850654335802</v>
+        <v>3609.24968543359</v>
       </c>
       <c r="D438">
         <f t="shared" si="6"/>
-        <v>2.2256521666005189</v>
+        <v>1.0994403265427697</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -10331,11 +11534,11 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>7721.48782753667</v>
+        <v>3954.1072075366601</v>
       </c>
       <c r="D439">
         <f t="shared" si="6"/>
-        <v>2.352099698938698</v>
+        <v>1.2044899351198448</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -10343,11 +11546,11 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>8199.5338340532508</v>
+        <v>4385.6439878994097</v>
       </c>
       <c r="D440">
         <f t="shared" si="6"/>
-        <v>2.4977208399831192</v>
+        <v>1.3359435556970092</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -10355,11 +11558,11 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>8412.8052326903507</v>
+        <v>4524.2884434595799</v>
       </c>
       <c r="D441">
         <f t="shared" si="6"/>
-        <v>2.562687023150255</v>
+        <v>1.3781770720174811</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -10367,11 +11570,11 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>9250.6569325083092</v>
+        <v>4688.5296463544701</v>
       </c>
       <c r="D442">
         <f t="shared" si="6"/>
-        <v>2.8179112461127094</v>
+        <v>1.428207803465988</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -10379,11 +11582,11 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>8306.8951660803305</v>
+        <v>3795.9944353111</v>
       </c>
       <c r="D443">
         <f t="shared" si="6"/>
-        <v>2.5304249719300724</v>
+        <v>1.1563260304091711</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -10391,11 +11594,11 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>8226.93746904621</v>
+        <v>3770.9374490462101</v>
       </c>
       <c r="D444">
         <f t="shared" si="6"/>
-        <v>2.5060684645674511</v>
+        <v>1.1486932359055293</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -10403,11 +11606,11 @@
         <v>445</v>
       </c>
       <c r="B445">
-        <v>8074.0828772786599</v>
+        <v>3696.43248650943</v>
       </c>
       <c r="D445">
         <f t="shared" si="6"/>
-        <v>2.4595062932206693</v>
+        <v>1.1259977264562699</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -10415,11 +11618,11 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>8454.2115821683201</v>
+        <v>4078.86632216832</v>
       </c>
       <c r="D446">
         <f t="shared" si="6"/>
-        <v>2.5753001184910209</v>
+        <v>1.2424937347138152</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -10427,11 +11630,11 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>9685.1007864711992</v>
+        <v>4856.4678264712002</v>
       </c>
       <c r="D447">
         <f t="shared" si="6"/>
-        <v>2.9502504119490784</v>
+        <v>1.4793646985768216</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -10439,11 +11642,11 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>9549.0757492020093</v>
+        <v>4684.7413584327896</v>
       </c>
       <c r="D448">
         <f t="shared" si="6"/>
-        <v>2.9088148160697469</v>
+        <v>1.4270538249738765</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -10451,11 +11654,11 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>9309.8200947755904</v>
+        <v>4690.6608563140599</v>
       </c>
       <c r="D449">
         <f t="shared" si="6"/>
-        <v>2.8359333759489909</v>
+        <v>1.4288570071449018</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -10463,11 +11666,11 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>9321.9593848446693</v>
+        <v>4458.4336186908204</v>
       </c>
       <c r="D450">
         <f t="shared" ref="D450:D513" si="7">B450*((PI()/180)^2)</f>
-        <v>2.8396312151678762</v>
+        <v>1.3581165452159158</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -10475,11 +11678,11 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>9269.1167783588498</v>
+        <v>4452.8090137434601</v>
       </c>
       <c r="D451">
         <f t="shared" si="7"/>
-        <v>2.8235344367253616</v>
+        <v>1.3564031925695315</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -10487,11 +11690,11 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>9244.1757277622692</v>
+        <v>4463.0074846853404</v>
       </c>
       <c r="D452">
         <f t="shared" si="7"/>
-        <v>2.8159369582458615</v>
+        <v>1.3595098244736166</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -10499,11 +11702,11 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>8711.6304547371692</v>
+        <v>4904.2687885833202</v>
       </c>
       <c r="D453">
         <f t="shared" si="7"/>
-        <v>2.6537143912573473</v>
+        <v>1.4939257043187379</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -10511,11 +11714,11 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>8735.5106331472798</v>
+        <v>4978.2903162242001</v>
       </c>
       <c r="D454">
         <f t="shared" si="7"/>
-        <v>2.6609887095886813</v>
+        <v>1.5164739510773733</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -10523,11 +11726,11 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>8701.2928896585599</v>
+        <v>4990.2995865816401</v>
       </c>
       <c r="D455">
         <f t="shared" si="7"/>
-        <v>2.6505653888562239</v>
+        <v>1.5201321840271778</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -10535,11 +11738,11 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>8688.6272758957493</v>
+        <v>4953.9686943572897</v>
       </c>
       <c r="D456">
         <f t="shared" si="7"/>
-        <v>2.6467072222717816</v>
+        <v>1.5090651613792472</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -10547,11 +11750,11 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>8400.6501126804997</v>
+        <v>4469.0810203728097</v>
       </c>
       <c r="D457">
         <f t="shared" si="7"/>
-        <v>2.5589843618556563</v>
+        <v>1.361359929243716</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -10559,11 +11762,11 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>8440.8501290636195</v>
+        <v>4468.2789567559303</v>
       </c>
       <c r="D458">
         <f t="shared" si="7"/>
-        <v>2.5712299871216659</v>
+        <v>1.3611156066942374</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -10571,11 +11774,11 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>8089.6909932131302</v>
+        <v>4366.35643321313</v>
       </c>
       <c r="D459">
         <f t="shared" si="7"/>
-        <v>2.4642607972243593</v>
+        <v>1.3300682305544795</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -10583,11 +11786,11 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>8054.2245259207803</v>
+        <v>4339.3398443823198</v>
       </c>
       <c r="D460">
         <f t="shared" si="7"/>
-        <v>2.4534570934688142</v>
+        <v>1.3218385069733998</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -10595,11 +11798,11 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>8058.2741784666596</v>
+        <v>4348.6848200051199</v>
       </c>
       <c r="D461">
         <f t="shared" si="7"/>
-        <v>2.4546906881783728</v>
+        <v>1.3246851493355869</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -10607,11 +11810,11 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>8072.1014643710696</v>
+        <v>4391.4379074480003</v>
       </c>
       <c r="D462">
         <f t="shared" si="7"/>
-        <v>2.458902720333227</v>
+        <v>1.3377084845203526</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -10619,11 +11822,11 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>8042.8145117297199</v>
+        <v>4448.9700363451102</v>
       </c>
       <c r="D463">
         <f t="shared" si="7"/>
-        <v>2.4499814043862038</v>
+        <v>1.3552337731798265</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -10631,11 +11834,11 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>8107.6231752164504</v>
+        <v>4500.1712121395203</v>
       </c>
       <c r="D464">
         <f t="shared" si="7"/>
-        <v>2.4697232522373564</v>
+        <v>1.3708305432403654</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -10643,11 +11846,11 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>8015.4428146188702</v>
+        <v>4411.3782669265702</v>
       </c>
       <c r="D465">
         <f t="shared" si="7"/>
-        <v>2.4416435086371133</v>
+        <v>1.3437826653743339</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -10655,11 +11858,11 @@
         <v>466</v>
       </c>
       <c r="B466">
-        <v>8019.1635987522504</v>
+        <v>4058.77358029072</v>
       </c>
       <c r="D466">
         <f t="shared" si="7"/>
-        <v>2.4427769242994071</v>
+        <v>1.2363731355266203</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -10667,11 +11870,11 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>7143.9676196465098</v>
+        <v>3833.9956842618899</v>
       </c>
       <c r="D467">
         <f t="shared" si="7"/>
-        <v>2.1761769833365139</v>
+        <v>1.1679018728132331</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -10679,11 +11882,11 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>8171.8938060953597</v>
+        <v>4282.1708599415097</v>
       </c>
       <c r="D468">
         <f t="shared" si="7"/>
-        <v>2.4893012059837538</v>
+        <v>1.3044238384412137</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -10691,11 +11894,11 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>7794.9996518150801</v>
+        <v>4502.8145918150803</v>
       </c>
       <c r="D469">
         <f t="shared" si="7"/>
-        <v>2.3744926811742015</v>
+        <v>1.3716357627366511</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -10703,11 +11906,11 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>7817.7308946671701</v>
+        <v>4486.5313469748598</v>
       </c>
       <c r="D470">
         <f t="shared" si="7"/>
-        <v>2.3814170137203501</v>
+        <v>1.3666756027076679</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -10715,11 +11918,11 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>8653.8202379703507</v>
+        <v>5156.4454841241904</v>
       </c>
       <c r="D471">
         <f t="shared" si="7"/>
-        <v>2.6361043921885288</v>
+        <v>1.5707431186447363</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -10727,11 +11930,11 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>8665.9182728587402</v>
+        <v>5121.5786482433596</v>
       </c>
       <c r="D472">
         <f t="shared" si="7"/>
-        <v>2.6397896643607193</v>
+        <v>1.5601220730625909</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -10739,11 +11942,11 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>8639.8812057983396</v>
+        <v>5061.6952904137097</v>
       </c>
       <c r="D473">
         <f t="shared" si="7"/>
-        <v>2.6318583201739667</v>
+        <v>1.5418805591123588</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -10751,11 +11954,11 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>7880.9583862070504</v>
+        <v>4342.5493415916699</v>
       </c>
       <c r="D474">
         <f t="shared" si="7"/>
-        <v>2.4006772090528146</v>
+        <v>1.3228161757321246</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -10763,11 +11966,11 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>8697.1929202760093</v>
+        <v>5067.3555571990901</v>
       </c>
       <c r="D475">
         <f t="shared" si="7"/>
-        <v>2.6493164667617068</v>
+        <v>1.5436047749758257</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -10775,11 +11978,11 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>8861.7229408798994</v>
+        <v>5084.3775301106698</v>
       </c>
       <c r="D476">
         <f t="shared" si="7"/>
-        <v>2.6994351771155181</v>
+        <v>1.5487899644438303</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -10787,11 +11990,11 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>8903.1666109346606</v>
+        <v>5122.7264878577298</v>
       </c>
       <c r="D477">
         <f t="shared" si="7"/>
-        <v>2.7120596409540911</v>
+        <v>1.5604717250042492</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -10799,11 +12002,11 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>8988.8614904536698</v>
+        <v>5091.2818212229004</v>
       </c>
       <c r="D478">
         <f t="shared" si="7"/>
-        <v>2.7381637940421042</v>
+        <v>1.5508931317878945</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -10811,11 +12014,11 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>9080.0239411730909</v>
+        <v>5114.7413288653997</v>
       </c>
       <c r="D479">
         <f t="shared" si="7"/>
-        <v>2.7659334645616873</v>
+        <v>1.558039306475419</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -10823,11 +12026,11 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>8298.9301865834495</v>
+        <v>4332.3731604295999</v>
       </c>
       <c r="D480">
         <f t="shared" si="7"/>
-        <v>2.5279987004270783</v>
+        <v>1.3197163336832527</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -10835,11 +12038,11 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>7869.9241701212404</v>
+        <v>4424.4879962750902</v>
       </c>
       <c r="D481">
         <f t="shared" si="7"/>
-        <v>2.3973159946193858</v>
+        <v>1.3477761173025822</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -10847,11 +12050,11 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>8063.0305920792398</v>
+        <v>4180.06397823309</v>
       </c>
       <c r="D482">
         <f t="shared" si="7"/>
-        <v>2.4561395746204751</v>
+        <v>1.2733203035927283</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -10859,11 +12062,11 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>7543.07483128479</v>
+        <v>3584.9430743617199</v>
       </c>
       <c r="D483">
         <f t="shared" si="7"/>
-        <v>2.2977519923640348</v>
+        <v>1.0920361093942976</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -10871,11 +12074,11 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>7548.12809981176</v>
+        <v>3571.6200875040699</v>
       </c>
       <c r="D484">
         <f t="shared" si="7"/>
-        <v>2.2992913059842097</v>
+        <v>1.087977695513868</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -10883,11 +12086,11 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>7551.9763805202401</v>
+        <v>3568.5835297510098</v>
       </c>
       <c r="D485">
         <f t="shared" si="7"/>
-        <v>2.3004635593242417</v>
+        <v>1.0870527071260976</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -10895,11 +12098,11 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>8012.5368856267696</v>
+        <v>4018.5329610113899</v>
       </c>
       <c r="D486">
         <f t="shared" si="7"/>
-        <v>2.4407583120454563</v>
+        <v>1.2241151419111316</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -10907,11 +12110,11 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>8004.4736418002203</v>
+        <v>4005.1597264156098</v>
       </c>
       <c r="D487">
         <f t="shared" si="7"/>
-        <v>2.4383021075159017</v>
+        <v>1.2200414216943627</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -10919,11 +12122,11 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>8008.9005018898897</v>
+        <v>3996.6231295821899</v>
       </c>
       <c r="D488">
         <f t="shared" si="7"/>
-        <v>2.4396506062141734</v>
+        <v>1.2174410255932069</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -10931,11 +12134,11 @@
         <v>489</v>
       </c>
       <c r="B489">
-        <v>8013.2377985561197</v>
+        <v>3989.5697585561202</v>
       </c>
       <c r="D489">
         <f t="shared" si="7"/>
-        <v>2.44097182233349</v>
+        <v>1.2152924459104473</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -10943,11 +12146,11 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>8017.3325737063196</v>
+        <v>3983.3748890909401</v>
       </c>
       <c r="D490">
         <f t="shared" si="7"/>
-        <v>2.4422191621743505</v>
+        <v>1.2134053807580485</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -10955,11 +12158,11 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>7530.8819757911597</v>
+        <v>3488.4822911757801</v>
       </c>
       <c r="D491">
         <f t="shared" si="7"/>
-        <v>2.2940378361837328</v>
+        <v>1.0626524745095915</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -10967,11 +12170,11 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>7538.58615569842</v>
+        <v>3484.1663341599501</v>
       </c>
       <c r="D492">
         <f t="shared" si="7"/>
-        <v>2.2963846635886553</v>
+        <v>1.061337758819519</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -10979,11 +12182,11 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>7544.2285770488097</v>
+        <v>3481.07645704881</v>
       </c>
       <c r="D493">
         <f t="shared" si="7"/>
-        <v>2.2981034434217604</v>
+        <v>1.0603965284264656</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -10991,11 +12194,11 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>7545.2422462261502</v>
+        <v>3478.4890139184499</v>
       </c>
       <c r="D494">
         <f t="shared" si="7"/>
-        <v>2.298412224711079</v>
+        <v>1.0596083481762504</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -11003,11 +12206,11 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>7545.3683157348296</v>
+        <v>3475.7881557348301</v>
       </c>
       <c r="D495">
         <f t="shared" si="7"/>
-        <v>2.2984506276795269</v>
+        <v>1.0587856197251464</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -11015,11 +12218,11 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>7550.0624377583399</v>
+        <v>3470.6193069891101</v>
       </c>
       <c r="D496">
         <f t="shared" si="7"/>
-        <v>2.2998805390184924</v>
+        <v>1.0572110983569574</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -11027,11 +12230,11 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>7553.8158189823598</v>
+        <v>3465.8024912900501</v>
       </c>
       <c r="D497">
         <f t="shared" si="7"/>
-        <v>2.3010238843224293</v>
+        <v>1.0557438123871214</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -11039,11 +12242,11 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>7554.7394973170904</v>
+        <v>3461.3193988555499</v>
       </c>
       <c r="D498">
         <f t="shared" si="7"/>
-        <v>2.3013052528334677</v>
+        <v>1.0543781843370588</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -11051,11 +12254,11 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>7557.8002134601702</v>
+        <v>3460.5418780755499</v>
       </c>
       <c r="D499">
         <f t="shared" si="7"/>
-        <v>2.3022376002876723</v>
+        <v>1.0541413379632247</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -11063,11 +12266,11 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>7557.4435437007796</v>
+        <v>3462.0851498546299</v>
       </c>
       <c r="D500">
         <f t="shared" si="7"/>
-        <v>2.3021289524658508</v>
+        <v>1.0546114454305977</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -11075,11 +12278,11 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>7558.4584838869296</v>
+        <v>3462.37360542539</v>
       </c>
       <c r="D501">
         <f t="shared" si="7"/>
-        <v>2.3024381209265936</v>
+        <v>1.0546993140222858</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -11087,11 +12290,11 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>7562.8744493765498</v>
+        <v>3462.07916476116</v>
       </c>
       <c r="D502">
         <f t="shared" si="7"/>
-        <v>2.3037833009399087</v>
+        <v>1.0546096222668677</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -11099,11 +12302,11 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>7564.6219476515198</v>
+        <v>3463.60299226691</v>
       </c>
       <c r="D503">
         <f t="shared" si="7"/>
-        <v>2.3043156193555121</v>
+        <v>1.0550738066698693</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -11111,11 +12314,11 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>7567.6884415372097</v>
+        <v>3463.0201015372099</v>
       </c>
       <c r="D504">
         <f t="shared" si="7"/>
-        <v>2.3052497268107626</v>
+        <v>1.0548962479997703</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -11123,11 +12326,11 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>7569.91819980938</v>
+        <v>3462.0909567324602</v>
       </c>
       <c r="D505">
         <f t="shared" si="7"/>
-        <v>2.3059289500223792</v>
+        <v>1.0546132143067393</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -11135,11 +12338,11 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>7571.11822564453</v>
+        <v>3458.94461025991</v>
       </c>
       <c r="D506">
         <f t="shared" si="7"/>
-        <v>2.3062944987959599</v>
+        <v>1.053654782362516</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -11147,11 +12350,11 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>7574.6503248133604</v>
+        <v>3457.53064173643</v>
       </c>
       <c r="D507">
         <f t="shared" si="7"/>
-        <v>2.3073704377311999</v>
+        <v>1.053224062919234</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -11159,11 +12362,11 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>7575.9609477466802</v>
+        <v>3456.15170928515</v>
       </c>
       <c r="D508">
         <f t="shared" si="7"/>
-        <v>2.3077696763074611</v>
+        <v>1.052804016073865</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -11171,11 +12374,11 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>7571.8239850337004</v>
+        <v>3454.0648034952401</v>
       </c>
       <c r="D509">
         <f t="shared" si="7"/>
-        <v>2.3065094854000794</v>
+        <v>1.0521683082168045</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -11183,11 +12386,11 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>7579.0563676716401</v>
+        <v>3454.6105369024099</v>
       </c>
       <c r="D510">
         <f t="shared" si="7"/>
-        <v>2.3087125951381586</v>
+        <v>1.0523345481191881</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -11195,11 +12398,11 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>7578.1121592847403</v>
+        <v>3454.8716085155102</v>
       </c>
       <c r="D511">
         <f t="shared" si="7"/>
-        <v>2.3084249728156001</v>
+        <v>1.0524140750803501</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -11207,11 +12410,11 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>7575.0999631340301</v>
+        <v>3452.3463077494098</v>
       </c>
       <c r="D512">
         <f t="shared" si="7"/>
-        <v>2.3075074053962794</v>
+        <v>1.0516448244767953</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -11219,11 +12422,11 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>7578.4883654820896</v>
+        <v>3450.4480962513098</v>
       </c>
       <c r="D513">
         <f t="shared" si="7"/>
-        <v>2.3085395717767447</v>
+        <v>1.0510665961880346</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -11231,11 +12434,11 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>7578.0556958563602</v>
+        <v>3450.68248354867</v>
       </c>
       <c r="D514">
         <f t="shared" ref="D514:D577" si="8">B514*((PI()/180)^2)</f>
-        <v>2.3084077730717349</v>
+        <v>1.0511379946417874</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -11243,11 +12446,11 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>7657.1531291470801</v>
+        <v>3532.2362891470798</v>
       </c>
       <c r="D515">
         <f t="shared" si="8"/>
-        <v>2.3325022291125053</v>
+        <v>1.0759807044769618</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -11255,11 +12458,11 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>7655.7480572758795</v>
+        <v>3533.0533172758901</v>
       </c>
       <c r="D516">
         <f t="shared" si="8"/>
-        <v>2.3320742197444853</v>
+        <v>1.0762295854774531</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -11267,11 +12470,11 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>7657.0050767804096</v>
+        <v>3532.8056060111799</v>
       </c>
       <c r="D517">
         <f t="shared" si="8"/>
-        <v>2.3324571297825769</v>
+        <v>1.0761541283111449</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -11279,11 +12482,11 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>7654.4315655535202</v>
+        <v>3534.1777224765901</v>
       </c>
       <c r="D518">
         <f t="shared" si="8"/>
-        <v>2.3316731934328496</v>
+        <v>1.076572098888485</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -11291,11 +12494,11 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>7656.9099112982703</v>
+        <v>3533.2442236059601</v>
       </c>
       <c r="D519">
         <f t="shared" si="8"/>
-        <v>2.3324281407189549</v>
+        <v>1.07628773887114</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -11303,11 +12506,11 @@
         <v>520</v>
       </c>
       <c r="B520">
-        <v>7655.2064488664701</v>
+        <v>3534.59855502032</v>
       </c>
       <c r="D520">
         <f t="shared" si="8"/>
-        <v>2.3319092363882761</v>
+        <v>1.0767002918121182</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -11315,11 +12518,11 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>7654.0563762706397</v>
+        <v>3534.7090962706402</v>
       </c>
       <c r="D521">
         <f t="shared" si="8"/>
-        <v>2.3315589042415668</v>
+        <v>1.0767339646025709</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -11327,11 +12530,11 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>7650.8157788072504</v>
+        <v>3531.5667418841799</v>
       </c>
       <c r="D522">
         <f t="shared" si="8"/>
-        <v>2.3305717618037018</v>
+        <v>1.075776748717312</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -11339,11 +12542,11 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>7642.4295209442798</v>
+        <v>3528.0296194058301</v>
       </c>
       <c r="D523">
         <f t="shared" si="8"/>
-        <v>2.3280171615718177</v>
+        <v>1.0746992795944874</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -11351,11 +12554,11 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>7628.8026888594304</v>
+        <v>3520.6116980902102</v>
       </c>
       <c r="D524">
         <f t="shared" si="8"/>
-        <v>2.323866191142264</v>
+        <v>1.0724396515431425</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -11363,11 +12566,11 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>7621.8014835847398</v>
+        <v>3516.9139912770502</v>
       </c>
       <c r="D525">
         <f t="shared" si="8"/>
-        <v>2.321733502056091</v>
+        <v>1.0713132656345898</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -11375,11 +12578,11 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>7615.9408713428702</v>
+        <v>3384.3519698044101</v>
       </c>
       <c r="D526">
         <f t="shared" si="8"/>
-        <v>2.3199482574766019</v>
+        <v>1.0309325646918841</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -11387,11 +12590,11 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>7577.7429466846297</v>
+        <v>3390.2352513000201</v>
       </c>
       <c r="D527">
         <f t="shared" si="8"/>
-        <v>2.3083125042260018</v>
+        <v>1.0327247147209557</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -11399,11 +12602,11 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>7283.5565215493698</v>
+        <v>3060.5760830878298</v>
       </c>
       <c r="D528">
         <f t="shared" si="8"/>
-        <v>2.218698194465023</v>
+        <v>0.93230478949112572</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -11411,11 +12614,11 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>7327.0831367405099</v>
+        <v>3107.8901890482002</v>
       </c>
       <c r="D529">
         <f t="shared" si="8"/>
-        <v>2.2319571596765972</v>
+        <v>0.94671749036828867</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -11423,11 +12626,11 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>7233.16606480874</v>
+        <v>3154.39804019335</v>
       </c>
       <c r="D530">
         <f t="shared" si="8"/>
-        <v>2.2033483835508187</v>
+        <v>0.96088459198394849</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -11435,11 +12638,11 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>7319.9565450686696</v>
+        <v>3281.0504435302</v>
       </c>
       <c r="D531">
         <f t="shared" si="8"/>
-        <v>2.2297862757096478</v>
+        <v>0.99946512029820533</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -11447,11 +12650,11 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>7760.3437778978496</v>
+        <v>3563.1339440516899</v>
       </c>
       <c r="D532">
         <f t="shared" si="8"/>
-        <v>2.3639358982810812</v>
+        <v>1.0853926683914641</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -11459,11 +12662,11 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>7776.0513950702398</v>
+        <v>3617.6778673779399</v>
       </c>
       <c r="D533">
         <f t="shared" si="8"/>
-        <v>2.3687207120951319</v>
+        <v>1.1020076975801505</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -11471,11 +12674,11 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>7600.4835314899801</v>
+        <v>3864.9215899515202</v>
       </c>
       <c r="D534">
         <f t="shared" si="8"/>
-        <v>2.3152396824938486</v>
+        <v>1.1773224424089754</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -11483,11 +12686,11 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>7826.67633174199</v>
+        <v>3951.8924025112201</v>
       </c>
       <c r="D535">
         <f t="shared" si="8"/>
-        <v>2.3841419496809459</v>
+        <v>1.2038152669276645</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -11495,11 +12698,11 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>8072.4626961308904</v>
+        <v>4340.6728253616602</v>
       </c>
       <c r="D536">
         <f t="shared" si="8"/>
-        <v>2.4590127578198486</v>
+        <v>1.3222445561999512</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -11507,11 +12710,11 @@
         <v>537</v>
       </c>
       <c r="B537">
-        <v>7107.3411746839001</v>
+        <v>3406.52785929928</v>
       </c>
       <c r="D537">
         <f t="shared" si="8"/>
-        <v>2.1650199301760442</v>
+        <v>1.0376877269312865</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -11519,11 +12722,11 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>8720.7335050353995</v>
+        <v>5019.4211419584699</v>
       </c>
       <c r="D538">
         <f t="shared" si="8"/>
-        <v>2.6564873389513828</v>
+        <v>1.5290031170862433</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -11531,11 +12734,11 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>9037.9233280552398</v>
+        <v>5418.6492742090904</v>
       </c>
       <c r="D539">
         <f t="shared" si="8"/>
-        <v>2.7531088844222893</v>
+        <v>1.6506149606386942</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -11543,11 +12746,11 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>9709.7364121183691</v>
+        <v>5156.1807582722104</v>
       </c>
       <c r="D540">
         <f t="shared" si="8"/>
-        <v>2.9577548526685509</v>
+        <v>1.5706624785387553</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -11555,11 +12758,11 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>9637.4625067686702</v>
+        <v>5110.1903652301999</v>
       </c>
       <c r="D541">
         <f t="shared" si="8"/>
-        <v>2.9357389621030165</v>
+        <v>1.5566530036753214</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -11567,11 +12770,11 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>8684.6956672278393</v>
+        <v>5264.0996964586102</v>
       </c>
       <c r="D542">
         <f t="shared" si="8"/>
-        <v>2.6455095857837518</v>
+        <v>1.6035364670352177</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -11579,11 +12782,11 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>9299.3450139599299</v>
+        <v>4937.3160801137801</v>
       </c>
       <c r="D543">
         <f t="shared" si="8"/>
-        <v>2.8327424838588673</v>
+        <v>1.5039924849956858</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -11591,11 +12794,11 @@
         <v>544</v>
       </c>
       <c r="B544">
-        <v>9247.65427666102</v>
+        <v>4877.4790505071696</v>
       </c>
       <c r="D544">
         <f t="shared" si="8"/>
-        <v>2.8169965848360006</v>
+        <v>1.4857650834292193</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -11603,11 +12806,11 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>9147.4898066896003</v>
+        <v>4801.0876651511398</v>
       </c>
       <c r="D545">
         <f t="shared" si="8"/>
-        <v>2.7864847424390038</v>
+        <v>1.4624949367281332</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -11615,11 +12818,11 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>9086.7240874395993</v>
+        <v>4746.0363828241998</v>
       </c>
       <c r="D546">
         <f t="shared" si="8"/>
-        <v>2.767974445829585</v>
+        <v>1.4457253571497513</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -11627,11 +12830,11 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>9055.3288634005603</v>
+        <v>4735.9719803236403</v>
       </c>
       <c r="D547">
         <f t="shared" si="8"/>
-        <v>2.758410913689187</v>
+        <v>1.4426595648283358</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -11639,11 +12842,11 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>9038.2279480644302</v>
+        <v>4739.71772344904</v>
       </c>
       <c r="D548">
         <f t="shared" si="8"/>
-        <v>2.7532016769835042</v>
+        <v>1.443800583434379</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -11651,11 +12854,11 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>9027.6354762954597</v>
+        <v>4718.7044147570004</v>
       </c>
       <c r="D549">
         <f t="shared" si="8"/>
-        <v>2.7499750255640767</v>
+        <v>1.4373995635594281</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -11663,11 +12866,11 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>8525.6805760110292</v>
+        <v>4220.1977190879497</v>
       </c>
       <c r="D550">
         <f t="shared" si="8"/>
-        <v>2.5970708189901388</v>
+        <v>1.2855457401783239</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -11675,11 +12878,11 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>8415.8715362166095</v>
+        <v>4123.41488698584</v>
       </c>
       <c r="D551">
         <f t="shared" si="8"/>
-        <v>2.563621072618707</v>
+        <v>1.2560640035837292</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -11687,11 +12890,11 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>8403.3459840862306</v>
+        <v>4127.6839071631503</v>
       </c>
       <c r="D552">
         <f t="shared" si="8"/>
-        <v>2.5598055712473471</v>
+        <v>1.2573644214951587</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -11699,11 +12902,11 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>8327.8687535727604</v>
+        <v>4063.5534104958301</v>
       </c>
       <c r="D553">
         <f t="shared" si="8"/>
-        <v>2.5368138920356871</v>
+        <v>1.2378291550707197</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -11711,11 +12914,11 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>8292.9096844066207</v>
+        <v>4022.2906628681599</v>
       </c>
       <c r="D554">
         <f t="shared" si="8"/>
-        <v>2.5261647505881526</v>
+        <v>1.2252598033550686</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -11723,11 +12926,11 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>8329.6426035205805</v>
+        <v>4060.9292789051901</v>
       </c>
       <c r="D555">
         <f t="shared" si="8"/>
-        <v>2.5373542376298808</v>
+        <v>1.2370297988763981</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -11735,11 +12938,11 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>8247.0228843389796</v>
+        <v>3980.6257028005198</v>
       </c>
       <c r="D556">
         <f t="shared" si="8"/>
-        <v>2.5121868319492791</v>
+        <v>1.2125679307237478</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -11747,11 +12950,11 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>7638.6763376087201</v>
+        <v>3381.2124453010301</v>
       </c>
       <c r="D557">
         <f t="shared" si="8"/>
-        <v>2.3268738765481531</v>
+        <v>1.0299762108383073</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -11759,11 +12962,11 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>7611.4525690989203</v>
+        <v>3353.8753275604599</v>
       </c>
       <c r="D558">
         <f t="shared" si="8"/>
-        <v>2.318581042427827</v>
+        <v>1.0216488485677693</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -11771,11 +12974,11 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>7605.8043282094004</v>
+        <v>3343.84116051709</v>
       </c>
       <c r="D559">
         <f t="shared" si="8"/>
-        <v>2.3168604898617278</v>
+        <v>1.0185922664933091</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -11783,11 +12986,11 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>7616.5664694937695</v>
+        <v>3353.13523103222</v>
       </c>
       <c r="D560">
         <f t="shared" si="8"/>
-        <v>2.3201388255711524</v>
+        <v>1.0214234022729438</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -11795,11 +12998,11 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>7632.6370483681503</v>
+        <v>3369.9506037527699</v>
       </c>
       <c r="D561">
         <f t="shared" si="8"/>
-        <v>2.3250342038423453</v>
+        <v>1.0265456577238294</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -11807,11 +13010,11 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>7138.9197572418898</v>
+        <v>2863.9279080111301</v>
       </c>
       <c r="D562">
         <f t="shared" si="8"/>
-        <v>2.1746393165153806</v>
+        <v>0.87240232979349652</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -11819,11 +13022,11 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>7140.6396434206199</v>
+        <v>2773.7552418821601</v>
       </c>
       <c r="D563">
         <f t="shared" si="8"/>
-        <v>2.1751632238054719</v>
+        <v>0.84493416490200135</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -11831,11 +13034,11 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>7130.32535945165</v>
+        <v>2786.3116932978</v>
       </c>
       <c r="D564">
         <f t="shared" si="8"/>
-        <v>2.1720213132358968</v>
+        <v>0.84875907873391077</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -11843,11 +13046,11 @@
         <v>565</v>
       </c>
       <c r="B565">
-        <v>7142.2336556611499</v>
+        <v>2777.7073048919201</v>
       </c>
       <c r="D565">
         <f t="shared" si="8"/>
-        <v>2.1756487877012907</v>
+        <v>0.84613803213886896</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -11855,11 +13058,11 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>7131.5748910653701</v>
+        <v>2850.20966644999</v>
       </c>
       <c r="D566">
         <f t="shared" si="8"/>
-        <v>2.1724019423320104</v>
+        <v>0.86822351444513124</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -11867,11 +13070,11 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>7141.2359760171303</v>
+        <v>2886.6980252479002</v>
       </c>
       <c r="D567">
         <f t="shared" si="8"/>
-        <v>2.1753448771023556</v>
+        <v>0.87933850415440229</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -11879,11 +13082,11 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>7117.7514247896797</v>
+        <v>2864.69114017429</v>
       </c>
       <c r="D568">
         <f t="shared" si="8"/>
-        <v>2.1681910737026011</v>
+        <v>0.87263482360573652</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -11891,11 +13094,11 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>7113.5128962130402</v>
+        <v>2857.75966852074</v>
       </c>
       <c r="D569">
         <f t="shared" si="8"/>
-        <v>2.1668999440638927</v>
+        <v>0.87052337659530743</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -11903,11 +13106,11 @@
         <v>570</v>
       </c>
       <c r="B570">
-        <v>7114.0409591821199</v>
+        <v>2858.2595361051999</v>
       </c>
       <c r="D570">
         <f t="shared" si="8"/>
-        <v>2.1670608012430188</v>
+        <v>0.87067564496912053</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -11915,11 +13118,11 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>7194.4742848555397</v>
+        <v>2923.96246485554</v>
       </c>
       <c r="D571">
         <f t="shared" si="8"/>
-        <v>2.1915621933745197</v>
+        <v>0.89068990159747918</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -11927,11 +13130,11 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>7150.0035227832304</v>
+        <v>2882.3359197063101</v>
       </c>
       <c r="D572">
         <f t="shared" si="8"/>
-        <v>2.1780156245761044</v>
+        <v>0.87800973081948575</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -11939,11 +13142,11 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>7155.0869741724</v>
+        <v>2900.2580095570102</v>
       </c>
       <c r="D573">
         <f t="shared" si="8"/>
-        <v>2.1795641324218842</v>
+        <v>0.8834691115869916</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -11951,11 +13154,11 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>7135.1000190329196</v>
+        <v>2878.8800790329201</v>
       </c>
       <c r="D574">
         <f t="shared" si="8"/>
-        <v>2.1734757577179034</v>
+        <v>0.87695702155036381</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -11963,11 +13166,11 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>7179.2119633969796</v>
+        <v>2920.9324126277502</v>
       </c>
       <c r="D575">
         <f t="shared" si="8"/>
-        <v>2.186913024391858</v>
+        <v>0.88976689490603078</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -11975,11 +13178,11 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>7151.7280180600301</v>
+        <v>2892.6068980600298</v>
       </c>
       <c r="D576">
         <f t="shared" si="8"/>
-        <v>2.1785409358777574</v>
+        <v>0.88113844974428102</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -11987,11 +13190,11 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>7163.9207266962403</v>
+        <v>2904.2587805424</v>
       </c>
       <c r="D577">
         <f t="shared" si="8"/>
-        <v>2.1822550473227311</v>
+        <v>0.88468781612171854</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -11999,11 +13202,11 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>7188.8633465127696</v>
+        <v>2928.8020034358501</v>
       </c>
       <c r="D578">
         <f t="shared" ref="D578:D641" si="9">B578*((PI()/180)^2)</f>
-        <v>2.1898530038139628</v>
+        <v>0.89216410935277146</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -12011,11 +13214,11 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>7170.4238202282304</v>
+        <v>2909.7637509974602</v>
       </c>
       <c r="D579">
         <f t="shared" si="9"/>
-        <v>2.1842360028950774</v>
+        <v>0.88636472601774108</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -12023,11 +13226,11 @@
         <v>580</v>
       </c>
       <c r="B580">
-        <v>7175.27857672546</v>
+        <v>2914.1431736485401</v>
       </c>
       <c r="D580">
         <f t="shared" si="9"/>
-        <v>2.1857148462929561</v>
+        <v>0.88769877444586853</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -12035,11 +13238,11 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>7182.23838870296</v>
+        <v>2919.5104102414198</v>
       </c>
       <c r="D581">
         <f t="shared" si="9"/>
-        <v>2.1878349262597427</v>
+        <v>0.88933372820817636</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -12047,11 +13250,11 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>7179.4980061046199</v>
+        <v>2917.82825225847</v>
       </c>
       <c r="D582">
         <f t="shared" si="9"/>
-        <v>2.187000157983408</v>
+        <v>0.88882131358373651</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -12059,11 +13262,11 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>7193.2591929912996</v>
+        <v>2929.8202329913001</v>
       </c>
       <c r="D583">
         <f t="shared" si="9"/>
-        <v>2.1911920552260313</v>
+        <v>0.89247427981270322</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -12071,11 +13274,11 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>7198.8554111421699</v>
+        <v>2935.4186526806402</v>
       </c>
       <c r="D584">
         <f t="shared" si="9"/>
-        <v>2.1928967607597127</v>
+        <v>0.89417965597335303</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -12083,11 +13286,11 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>7220.5993617504801</v>
+        <v>2954.57551405818</v>
       </c>
       <c r="D585">
         <f t="shared" si="9"/>
-        <v>2.1995203468899858</v>
+        <v>0.90001516965739092</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -12095,11 +13298,11 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>7220.7954960027901</v>
+        <v>2927.65720061818</v>
       </c>
       <c r="D586">
         <f t="shared" si="9"/>
-        <v>2.1995800927998563</v>
+        <v>0.8918153824722882</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -12107,11 +13310,11 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>7135.0464677003602</v>
+        <v>2870.5624000080502</v>
       </c>
       <c r="D587">
         <f t="shared" si="9"/>
-        <v>2.1734594450491529</v>
+        <v>0.87442331162719389</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -12119,11 +13322,11 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>7123.8637070589202</v>
+        <v>2856.28557321277</v>
       </c>
       <c r="D588">
         <f t="shared" si="9"/>
-        <v>2.1700529813564651</v>
+        <v>0.87007434148607388</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -12131,11 +13334,11 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>7125.0948888064404</v>
+        <v>2853.0535395756801</v>
       </c>
       <c r="D589">
         <f t="shared" si="9"/>
-        <v>2.170428020763683</v>
+        <v>0.86908980773887967</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -12143,11 +13346,11 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>7142.1940702231896</v>
+        <v>2867.93075945396</v>
       </c>
       <c r="D590">
         <f t="shared" si="9"/>
-        <v>2.175636729287318</v>
+        <v>0.87362166807180086</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -12155,11 +13358,11 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>7236.47844182682</v>
+        <v>2960.3717187499001</v>
       </c>
       <c r="D591">
         <f t="shared" si="9"/>
-        <v>2.2043573912914272</v>
+        <v>0.90178079457513827</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -12167,11 +13370,11 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>7251.9858461552403</v>
+        <v>2973.2787461552398</v>
       </c>
       <c r="D592">
         <f t="shared" si="9"/>
-        <v>2.2090812167855396</v>
+        <v>0.90571249996046921</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -12179,11 +13382,11 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>7251.1613891912002</v>
+        <v>2973.09963534504</v>
       </c>
       <c r="D593">
         <f t="shared" si="9"/>
-        <v>2.2088300728324288</v>
+        <v>0.90565793968761021</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -12191,11 +13394,11 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>7267.7070198036799</v>
+        <v>2989.3874136498298</v>
       </c>
       <c r="D594">
         <f t="shared" si="9"/>
-        <v>2.2138701601383461</v>
+        <v>0.91061948068887322</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -12203,11 +13406,11 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>7268.6840755910298</v>
+        <v>2989.0779863602502</v>
       </c>
       <c r="D595">
         <f t="shared" si="9"/>
-        <v>2.2141677883512765</v>
+        <v>0.91052522374630984</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -12215,11 +13418,11 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>7273.62272438114</v>
+        <v>2993.9743259196098</v>
       </c>
       <c r="D596">
         <f t="shared" si="9"/>
-        <v>2.2156721868029527</v>
+        <v>0.91201673406928163</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -12227,11 +13430,11 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>7271.7215371811199</v>
+        <v>2989.6034694888099</v>
       </c>
       <c r="D597">
         <f t="shared" si="9"/>
-        <v>2.2150930520635508</v>
+        <v>0.91068529506107321</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -12239,11 +13442,11 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>7278.4258951000202</v>
+        <v>2995.5744427923401</v>
       </c>
       <c r="D598">
         <f t="shared" si="9"/>
-        <v>2.217135316274133</v>
+        <v>0.91250415754240988</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -12251,11 +13454,11 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>7283.9880178462199</v>
+        <v>3001.80014707699</v>
       </c>
       <c r="D599">
         <f t="shared" si="9"/>
-        <v>2.2188296357536172</v>
+        <v>0.91440061551795504</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -12263,11 +13466,11 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>7241.8274593015103</v>
+        <v>2960.7940900707499</v>
       </c>
       <c r="D600">
         <f t="shared" si="9"/>
-        <v>2.2059867951929615</v>
+        <v>0.9019094562370874</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -12275,11 +13478,11 @@
         <v>601</v>
       </c>
       <c r="B601">
-        <v>7240.1084496070598</v>
+        <v>2957.5009019147501</v>
       </c>
       <c r="D601">
         <f t="shared" si="9"/>
-        <v>2.2054631548952495</v>
+        <v>0.90090629375813469</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -12287,11 +13490,11 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>7243.6440721107301</v>
+        <v>2960.0332228799598</v>
       </c>
       <c r="D602">
         <f t="shared" si="9"/>
-        <v>2.2065401670996572</v>
+        <v>0.90167768283662864</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -12299,11 +13502,11 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>7241.6280859107801</v>
+        <v>2957.2076151415499</v>
       </c>
       <c r="D603">
         <f t="shared" si="9"/>
-        <v>2.2059260625851032</v>
+        <v>0.90081695349802482</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -12311,11 +13514,11 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>7238.9581953389697</v>
+        <v>2960.0441138004999</v>
       </c>
       <c r="D604">
         <f t="shared" si="9"/>
-        <v>2.2051127674080053</v>
+        <v>0.90168100040074262</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -12323,11 +13526,11 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>7236.6291390876504</v>
+        <v>2956.6371575491798</v>
       </c>
       <c r="D605">
         <f t="shared" si="9"/>
-        <v>2.2044032963021905</v>
+        <v>0.90064318217813932</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -12335,11 +13538,11 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>7237.9075760263104</v>
+        <v>2956.4532514109201</v>
       </c>
       <c r="D606">
         <f t="shared" si="9"/>
-        <v>2.2047927304638049</v>
+        <v>0.90058716116481974</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -12347,11 +13550,11 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>7234.4529122283102</v>
+        <v>2951.4269383821602</v>
       </c>
       <c r="D607">
         <f t="shared" si="9"/>
-        <v>2.2037403796914274</v>
+        <v>0.89905605865895855</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -12359,11 +13562,11 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>6977.7061990505199</v>
+        <v>3144.6992682812902</v>
       </c>
       <c r="D608">
         <f t="shared" si="9"/>
-        <v>2.125530858384491</v>
+        <v>0.95793017710899708</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
@@ -12371,11 +13574,11 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>6980.03932852462</v>
+        <v>3147.3409962169198</v>
       </c>
       <c r="D609">
         <f t="shared" si="9"/>
-        <v>2.1262415702649196</v>
+        <v>0.95873489345652707</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -12383,11 +13586,11 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>6980.1822983807697</v>
+        <v>3146.0122676115402</v>
       </c>
       <c r="D610">
         <f t="shared" si="9"/>
-        <v>2.1262851213736074</v>
+        <v>0.95833013957715951</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -12395,11 +13598,11 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>6992.3752406789799</v>
+        <v>3147.2624976020602</v>
       </c>
       <c r="D611">
         <f t="shared" si="9"/>
-        <v>2.129999303996096</v>
+        <v>0.95871098141101163</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -12407,11 +13610,11 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>6990.1999813505299</v>
+        <v>3149.4780798120601</v>
       </c>
       <c r="D612">
         <f t="shared" si="9"/>
-        <v>2.1293366821120969</v>
+        <v>0.95938588634714717</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
@@ -12419,11 +13622,11 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>7135.6706526819698</v>
+        <v>2523.8637357589</v>
       </c>
       <c r="D613">
         <f t="shared" si="9"/>
-        <v>2.1736495826677205</v>
+        <v>0.76881285908011932</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
@@ -12431,11 +13634,11 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>7126.0949309896696</v>
+        <v>2516.3853509896699</v>
       </c>
       <c r="D614">
         <f t="shared" si="9"/>
-        <v>2.1707326510332163</v>
+        <v>0.76653481280754421</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -12443,11 +13646,11 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>7123.9171743154002</v>
+        <v>2514.8622589307802</v>
       </c>
       <c r="D615">
         <f t="shared" si="9"/>
-        <v>2.1700692684141769</v>
+        <v>0.7660708524344676</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -12455,11 +13658,11 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>7110.48549063869</v>
+        <v>2503.91937986946</v>
       </c>
       <c r="D616">
         <f t="shared" si="9"/>
-        <v>2.165977743589186</v>
+        <v>0.76273746084977034</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
@@ -12467,11 +13670,11 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>7078.0396253744902</v>
+        <v>2456.2387438360302</v>
       </c>
       <c r="D617">
         <f t="shared" si="9"/>
-        <v>2.1560941678296586</v>
+        <v>0.74821310852747769</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -12479,11 +13682,11 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>7048.3081808364104</v>
+        <v>2401.2656869902598</v>
       </c>
       <c r="D618">
         <f t="shared" si="9"/>
-        <v>2.1470374519079369</v>
+        <v>0.73146735779333116</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
@@ -12491,11 +13694,11 @@
         <v>619</v>
       </c>
       <c r="B619">
-        <v>7031.5287591008901</v>
+        <v>2371.4226867931998</v>
       </c>
       <c r="D619">
         <f t="shared" si="9"/>
-        <v>2.1419261477533498</v>
+        <v>0.72237666007460843</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
@@ -12503,11 +13706,11 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>7031.6371592253299</v>
+        <v>2381.7208776868601</v>
       </c>
       <c r="D620">
         <f t="shared" si="9"/>
-        <v>2.1419591683195613</v>
+        <v>0.72551366841310627</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
@@ -12515,11 +13718,11 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>7036.5912199527602</v>
+        <v>2384.5821061066099</v>
       </c>
       <c r="D621">
         <f t="shared" si="9"/>
-        <v>2.1434682615158178</v>
+        <v>0.72638524843175079</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -12527,11 +13730,11 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>7037.64984041763</v>
+        <v>2391.8090404176301</v>
       </c>
       <c r="D622">
         <f t="shared" si="9"/>
-        <v>2.1437907357503598</v>
+        <v>0.72858669851454183</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -12539,11 +13742,11 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>7027.5336153408198</v>
+        <v>2394.8648368792801</v>
       </c>
       <c r="D623">
         <f t="shared" si="9"/>
-        <v>2.1407091573694803</v>
+        <v>0.72951754734808305</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
@@ -12551,11 +13754,11 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>7058.7797850920897</v>
+        <v>2368.8037004767102</v>
       </c>
       <c r="D624">
         <f t="shared" si="9"/>
-        <v>2.1502272849773294</v>
+        <v>0.72157887122042275</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -12563,11 +13766,11 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>7058.6231205146496</v>
+        <v>2321.3133035915698</v>
       </c>
       <c r="D625">
         <f t="shared" si="9"/>
-        <v>2.150179562217978</v>
+        <v>0.7071124690566245</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -12575,11 +13778,11 @@
         <v>626</v>
       </c>
       <c r="B626">
-        <v>7001.3176198133697</v>
+        <v>2397.3786644287602</v>
       </c>
       <c r="D626">
         <f t="shared" si="9"/>
-        <v>2.1327233084547683</v>
+        <v>0.73028330300999433</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -12587,11 +13790,11 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>6981.5160569416803</v>
+        <v>2391.9569877109102</v>
       </c>
       <c r="D627">
         <f t="shared" si="9"/>
-        <v>2.1266914074650503</v>
+        <v>0.72863176583728528</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -12599,11 +13802,11 @@
         <v>628</v>
       </c>
       <c r="B628">
-        <v>6986.5181295541297</v>
+        <v>2411.7313695541302</v>
       </c>
       <c r="D628">
         <f t="shared" si="9"/>
-        <v>2.1282151259178401</v>
+        <v>0.73465538701224409</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -12611,11 +13814,11 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>7011.2064787730897</v>
+        <v>2409.2790972346302</v>
       </c>
       <c r="D629">
         <f t="shared" si="9"/>
-        <v>2.1357356271557131</v>
+        <v>0.73390838214566356</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -12623,11 +13826,11 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>7031.4573263045004</v>
+        <v>2413.6161401506602</v>
       </c>
       <c r="D630">
         <f t="shared" si="9"/>
-        <v>2.1419043880792255</v>
+        <v>0.7352295209682489</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -12635,11 +13838,11 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>7037.6916161224699</v>
+        <v>2427.4043607378599</v>
       </c>
       <c r="D631">
         <f t="shared" si="9"/>
-        <v>2.1438034613577779</v>
+        <v>0.73942965314697162</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -12647,11 +13850,11 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>7043.6292483574398</v>
+        <v>2410.3548160497498</v>
       </c>
       <c r="D632">
         <f t="shared" si="9"/>
-        <v>2.1456121675688369</v>
+        <v>0.73423606483554138</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -12659,11 +13862,11 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>7044.58567374835</v>
+        <v>2397.6929999022</v>
       </c>
       <c r="D633">
         <f t="shared" si="9"/>
-        <v>2.1459035114036342</v>
+        <v>0.73037905507086098</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -12671,11 +13874,11 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>7038.9791653101202</v>
+        <v>2404.1046622332001</v>
       </c>
       <c r="D634">
         <f t="shared" si="9"/>
-        <v>2.1441956712691685</v>
+        <v>0.73233215910667393</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -12683,11 +13886,11 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>7050.2083269785699</v>
+        <v>2412.8946115939498</v>
       </c>
       <c r="D635">
         <f t="shared" si="9"/>
-        <v>2.1476162695229792</v>
+        <v>0.73500973080100129</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
@@ -12695,11 +13898,11 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>7055.8192957183501</v>
+        <v>2416.5191187952801</v>
       </c>
       <c r="D636">
         <f t="shared" si="9"/>
-        <v>2.1493254683429952</v>
+        <v>0.73611381883266891</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -12707,11 +13910,11 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>7075.5568634686797</v>
+        <v>2435.4158788533</v>
       </c>
       <c r="D637">
         <f t="shared" si="9"/>
-        <v>2.1553378753039656</v>
+        <v>0.74187010112387142</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -12719,11 +13922,11 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>7120.4909588622104</v>
+        <v>2489.6146665545298</v>
       </c>
       <c r="D638">
         <f t="shared" si="9"/>
-        <v>2.1690255835031929</v>
+        <v>0.75837999598898764</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -12731,11 +13934,11 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>7103.18657054707</v>
+        <v>2471.6166782393798</v>
       </c>
       <c r="D639">
         <f t="shared" si="9"/>
-        <v>2.1637543653836477</v>
+        <v>0.75289749522707539</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -12743,11 +13946,11 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>7110.3070412185798</v>
+        <v>2482.72492891089</v>
       </c>
       <c r="D640">
         <f t="shared" si="9"/>
-        <v>2.1659233847872699</v>
+        <v>0.7562812618849748</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
@@ -12755,11 +13958,11 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>7150.4332252965596</v>
+        <v>2473.5228791427098</v>
       </c>
       <c r="D641">
         <f t="shared" si="9"/>
-        <v>2.1781465194469907</v>
+        <v>0.75347815722784284</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
@@ -12767,11 +13970,11 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>7161.7754239320602</v>
+        <v>2474.6290131628298</v>
       </c>
       <c r="D642">
         <f t="shared" ref="D642:D651" si="10">B642*((PI()/180)^2)</f>
-        <v>2.1816015507300452</v>
+        <v>0.75381510491899006</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
@@ -12779,11 +13982,11 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>7160.7063828442497</v>
+        <v>2474.9974013057799</v>
       </c>
       <c r="D643">
         <f t="shared" si="10"/>
-        <v>2.1812759021922301</v>
+        <v>0.7539273223645756</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
@@ -12791,11 +13994,11 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>7168.12769562637</v>
+        <v>2475.4605279340599</v>
       </c>
       <c r="D644">
         <f t="shared" si="10"/>
-        <v>2.1835365633433499</v>
+        <v>0.75406839880311671</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
@@ -12803,11 +14006,11 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>7163.2480116352399</v>
+        <v>2474.7952024044698</v>
       </c>
       <c r="D645">
         <f t="shared" si="10"/>
-        <v>2.1820501265965975</v>
+        <v>0.7538657290569748</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
@@ -12815,11 +14018,11 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>7163.2147270032301</v>
+        <v>2476.12073777247</v>
       </c>
       <c r="D646">
         <f t="shared" si="10"/>
-        <v>2.182039987517876</v>
+        <v>0.75426951022061106</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -12827,11 +14030,11 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>7175.3786120754203</v>
+        <v>2481.7351197677299</v>
       </c>
       <c r="D647">
         <f t="shared" si="10"/>
-        <v>2.1857453188031486</v>
+        <v>0.75597974877770402</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
@@ -12839,11 +14042,11 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>7182.0593526718103</v>
+        <v>2485.86196036412</v>
       </c>
       <c r="D648">
         <f t="shared" si="10"/>
-        <v>2.1877803887658853</v>
+        <v>0.7572368563120474</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
@@ -12851,11 +14054,11 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>7180.6987896896799</v>
+        <v>2490.9305127665998</v>
       </c>
       <c r="D649">
         <f t="shared" si="10"/>
-        <v>2.1873659375808114</v>
+        <v>0.7587808256669446</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
@@ -12863,11 +14066,11 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>7172.1701270276499</v>
+        <v>2486.8202177968801</v>
       </c>
       <c r="D650">
         <f t="shared" si="10"/>
-        <v>2.1847679583664728</v>
+        <v>0.75752875821870624</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,11 +14078,11 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>7156.6357470969597</v>
+        <v>2472.65719325081</v>
       </c>
       <c r="D651">
         <f t="shared" si="10"/>
-        <v>2.1800359156339995</v>
+        <v>0.75321445422510658</v>
       </c>
     </row>
   </sheetData>
@@ -12893,7 +14096,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/report/ErrorCuadMedio.xlsx
+++ b/report/ErrorCuadMedio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="5" r:id="rId1"/>
@@ -183,7 +183,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1649,11 +1648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="662257280"/>
-        <c:axId val="662249664"/>
+        <c:axId val="220487392"/>
+        <c:axId val="220491200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662257280"/>
+        <c:axId val="220487392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1684,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1751,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662249664"/>
+        <c:crossAx val="220491200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +1757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662249664"/>
+        <c:axId val="220491200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1819,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1882,7 +1879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662257280"/>
+        <c:crossAx val="220487392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1985,6 +1982,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2039,6 +2037,7 @@
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3963,11 +3962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="662248576"/>
-        <c:axId val="662249120"/>
+        <c:axId val="220491744"/>
+        <c:axId val="46795008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662248576"/>
+        <c:axId val="220491744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,6 +3998,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4064,7 +4064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662249120"/>
+        <c:crossAx val="46795008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4072,7 +4072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662249120"/>
+        <c:axId val="46795008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -4130,6 +4130,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4190,7 +4191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662248576"/>
+        <c:crossAx val="220491744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4204,6 +4205,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4328,7 +4330,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6931,11 +6932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="662251296"/>
-        <c:axId val="662251840"/>
+        <c:axId val="270816416"/>
+        <c:axId val="270806624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662251296"/>
+        <c:axId val="270816416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6967,7 +6968,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7033,7 +7033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662251840"/>
+        <c:crossAx val="270806624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7041,7 +7041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662251840"/>
+        <c:axId val="270806624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7098,7 +7098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7159,7 +7158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662251296"/>
+        <c:crossAx val="270816416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7173,7 +7172,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10207,11 +10205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="479962512"/>
-        <c:axId val="479965232"/>
+        <c:axId val="270816960"/>
+        <c:axId val="270804448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="479962512"/>
+        <c:axId val="270816960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10309,7 +10307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479965232"/>
+        <c:crossAx val="270804448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10317,7 +10315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479965232"/>
+        <c:axId val="270804448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10435,7 +10433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479962512"/>
+        <c:crossAx val="270816960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10632,6 +10630,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -13486,11 +13485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="719896000"/>
-        <c:axId val="719892192"/>
+        <c:axId val="270803360"/>
+        <c:axId val="270815872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="719896000"/>
+        <c:axId val="270803360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13588,7 +13587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719892192"/>
+        <c:crossAx val="270815872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13596,7 +13595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="719892192"/>
+        <c:axId val="270815872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13714,7 +13713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719896000"/>
+        <c:crossAx val="270803360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27276,8 +27275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33455,7 +33454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -37203,8 +37202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B466"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/report/ErrorCuadMedio.xlsx
+++ b/report/ErrorCuadMedio.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>original vs glitches</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Original vs corregido</t>
+  </si>
+  <si>
+    <t>Ground Truth vs glitched</t>
+  </si>
+  <si>
+    <t>Ground Truth vs corregido</t>
   </si>
 </sst>
 </file>
@@ -1648,11 +1654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="220487392"/>
-        <c:axId val="220491200"/>
+        <c:axId val="-1856953952"/>
+        <c:axId val="-1856951776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220487392"/>
+        <c:axId val="-1856953952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +1755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220491200"/>
+        <c:crossAx val="-1856951776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1757,7 +1763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220491200"/>
+        <c:axId val="-1856951776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +1885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220487392"/>
+        <c:crossAx val="-1856953952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2027,7 +2033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>original vs glitches</c:v>
+                  <c:v>Ground Truth vs glitched</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2995,7 +3001,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>original vs corregido</c:v>
+                  <c:v>Ground Truth vs corregido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3962,11 +3968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="220491744"/>
-        <c:axId val="46795008"/>
+        <c:axId val="-1856949056"/>
+        <c:axId val="-1856945248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220491744"/>
+        <c:axId val="-1856949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4064,7 +4070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46795008"/>
+        <c:crossAx val="-1856945248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4072,7 +4078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46795008"/>
+        <c:axId val="-1856945248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -4191,7 +4197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220491744"/>
+        <c:crossAx val="-1856949056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6932,11 +6938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270816416"/>
-        <c:axId val="270806624"/>
+        <c:axId val="-1856946880"/>
+        <c:axId val="-1856947424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270816416"/>
+        <c:axId val="-1856946880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7033,7 +7039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270806624"/>
+        <c:crossAx val="-1856947424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7041,7 +7047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270806624"/>
+        <c:axId val="-1856947424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7158,7 +7164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270816416"/>
+        <c:crossAx val="-1856946880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7296,7 +7302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10205,11 +10210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270816960"/>
-        <c:axId val="270804448"/>
+        <c:axId val="-1856938720"/>
+        <c:axId val="-1856944704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270816960"/>
+        <c:axId val="-1856938720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10241,7 +10246,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10307,7 +10311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270804448"/>
+        <c:crossAx val="-1856944704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10315,7 +10319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270804448"/>
+        <c:axId val="-1856944704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10372,7 +10376,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10433,7 +10436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270816960"/>
+        <c:crossAx val="-1856938720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10447,7 +10450,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10620,7 +10622,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original vs glitched</c:v>
+                  <c:v>Ground Truth vs glitched</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12053,7 +12055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original vs corregido</c:v>
+                  <c:v>Ground Truth vs corregido</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12063,6 +12065,7 @@
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -13485,11 +13488,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270803360"/>
-        <c:axId val="270815872"/>
+        <c:axId val="-1856943616"/>
+        <c:axId val="-1856943072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270803360"/>
+        <c:axId val="-1856943616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13587,7 +13590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270815872"/>
+        <c:crossAx val="-1856943072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13595,7 +13598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270815872"/>
+        <c:axId val="-1856943072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13713,7 +13716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270803360"/>
+        <c:crossAx val="-1856943616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27275,22 +27278,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C421"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -37203,21 +37207,21 @@
   <dimension ref="A1:B466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
